--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:42 AM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>Sunday, 14 September, 2025 10:17 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>45</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -56,13 +56,13 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>Sunday, 14 September, 2025 10:17 AM</t>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>Sunday, 14 September, 2025 10:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -725,7 +725,7 @@
     </row>
     <row r="8" ht="24.75" customHeight="1">
       <c r="P8" s="13">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="13"/>
     </row>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 10:32 AM</t>
+    <t>Sunday, 14 September, 2025 10:37 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -44,12 +44,48 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -62,7 +98,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 10:37 AM</t>
+    <t>Sunday, 14 September, 2025 10:38 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +760,137 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
         <v>18</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>18</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>25</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>249</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>30</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>31</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +904,25 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -98,7 +98,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 10:38 AM</t>
+    <t>Sunday, 14 September, 2025 10:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
     <t>26.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -74,6 +86,21 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -95,10 +122,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>Sunday, 14 September, 2025 10:39 AM</t>
+    <t>Sunday, 14 September, 2025 10:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -805,7 +829,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -815,11 +839,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -831,66 +855,132 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>249</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>29</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>30</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>22</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>31</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>22</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>34</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>350</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>38</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>39</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -919,10 +1009,20 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -62,6 +62,33 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
@@ -98,9 +125,6 @@
     <t>23.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -110,19 +134,46 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
     <t>60.0000</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 10:45 AM</t>
+    <t>Sunday, 14 September, 2025 10:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -813,7 +864,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -822,14 +873,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -839,14 +890,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -855,14 +906,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -872,14 +923,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -895,7 +946,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -905,11 +956,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -921,66 +972,231 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>31</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>39</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>350</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
-        <v>37</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
-        <v>38</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
-        <v>39</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>31</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>45</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>46</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>31</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>45</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>31</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>45</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>399.04000000000002</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>56</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1019,10 +1235,35 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -173,7 +182,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 10:46 AM</t>
+    <t>Sunday, 14 September, 2025 11:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1045,7 +1054,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1078,24 +1087,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1104,7 +1113,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1117,7 +1126,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1150,7 +1159,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1161,42 +1170,75 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>399.04000000000002</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>54</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>31</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>48</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>55</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>430.04000000000002</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>57</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>58</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>59</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1260,10 +1302,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -182,7 +182,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 11:24 AM</t>
+    <t>Sunday, 14 September, 2025 11:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -152,12 +161,36 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>ايزي سويت 3 قطع</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -173,6 +206,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -182,7 +227,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 11:50 AM</t>
+    <t>Sunday, 14 September, 2025 12:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1021,7 +1066,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1054,7 +1099,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1071,7 +1116,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1087,7 +1132,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1120,24 +1165,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1146,31 +1191,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1179,7 +1224,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1192,53 +1237,185 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>31</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>52</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>60</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>62</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>31</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>52</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>63</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>66</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>52</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>67</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>31</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>52</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>70</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>430.04000000000002</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>57</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
-        <v>58</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
-        <v>59</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>667.03999999999996</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>72</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>73</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>74</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1307,10 +1484,30 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -227,7 +227,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 12:00 PM</t>
+    <t>Sunday, 14 September, 2025 12:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -227,7 +227,13 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 12:01 PM</t>
+    <t>مناديل شمع</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>Sunday, 14 September, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1384,38 +1390,71 @@
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>667.03999999999996</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>72</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>31</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>52</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>73</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>707.03999999999996</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
         <v>74</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>75</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>76</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1504,10 +1543,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -233,7 +233,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 12:03 PM</t>
+    <t>Sunday, 14 September, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -233,7 +233,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 12:04 PM</t>
+    <t>Sunday, 14 September, 2025 12:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -101,6 +101,21 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -125,6 +140,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>PRIDOCAINE CREAM 15 GM</t>
   </si>
   <si>
@@ -176,9 +200,6 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>زيت جونسون صغير</t>
   </si>
   <si>
@@ -233,7 +254,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 12:18 PM</t>
+    <t>Sunday, 14 September, 2025 12:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1023,7 +1044,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1032,14 +1053,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1049,14 +1070,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1065,14 +1086,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1082,14 +1103,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1098,14 +1119,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1115,14 +1136,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1131,14 +1152,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1148,14 +1169,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1164,14 +1185,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1181,14 +1202,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1197,20 +1218,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1221,7 +1242,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1230,31 +1251,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1263,31 +1284,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1296,28 +1317,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1329,20 +1350,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1353,7 +1374,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1369,13 +1390,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1386,7 +1407,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1402,59 +1423,125 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>36</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>60</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>36</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>60</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>80</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>707.03999999999996</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>74</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>75</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
-        <v>76</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>747.09000000000003</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>81</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>82</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>83</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1548,10 +1635,20 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -254,7 +254,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 12:28 PM</t>
+    <t>Sunday, 14 September, 2025 12:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -254,7 +254,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 12:31 PM</t>
+    <t>Sunday, 14 September, 2025 12:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1192,7 +1192,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DOLO-D ORAL SUSP. 115 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
@@ -128,6 +137,18 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -185,6 +206,18 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8267:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>ايزي سويت 3 قطع</t>
   </si>
   <si>
@@ -212,12 +245,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -254,7 +281,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 12:46 PM</t>
+    <t>Sunday, 14 September, 2025 12:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -994,7 +1021,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1004,11 +1031,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1020,14 +1047,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1037,14 +1064,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1053,14 +1080,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1070,14 +1097,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1086,14 +1113,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1103,14 +1130,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1119,14 +1146,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1143,7 +1170,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1159,7 +1186,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1169,14 +1196,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1185,14 +1212,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1202,14 +1229,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1218,14 +1245,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1235,14 +1262,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1251,14 +1278,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1268,14 +1295,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1284,31 +1311,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1317,31 +1344,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1350,20 +1377,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1390,24 +1417,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1416,31 +1443,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1449,31 +1476,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1482,66 +1509,165 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>747.09000000000003</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>81</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>82</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>71</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>83</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>85</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>39</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>71</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>86</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>39</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>71</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>89</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>810.09000000000003</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>90</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>91</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>92</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1645,10 +1771,25 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
   </si>
   <si>
     <t>شمع حريمي</t>
@@ -1549,7 +1558,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1559,14 +1568,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1575,14 +1584,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1599,7 +1608,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1629,45 +1638,78 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>39</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>71</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>92</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>73</v>
       </c>
-      <c t="s" r="Q28" s="12">
+      <c t="s" r="Q29" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>810.09000000000003</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>90</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>91</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>92</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>814.09000000000003</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>93</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>94</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>95</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1786,10 +1828,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -98,6 +98,12 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
@@ -290,7 +296,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 12:47 PM</t>
+    <t>Sunday, 14 September, 2025 1:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1063,7 +1069,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1073,14 +1079,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1089,14 +1095,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1106,14 +1112,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1122,14 +1128,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1139,14 +1145,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1155,14 +1161,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1172,11 +1178,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1188,14 +1194,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1205,14 +1211,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1221,14 +1227,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1238,11 +1244,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1254,14 +1260,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1271,14 +1277,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1287,7 +1293,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1304,11 +1310,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1320,14 +1326,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1337,14 +1343,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1353,14 +1359,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1370,11 +1376,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1386,14 +1392,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1403,14 +1409,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1419,31 +1425,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1452,31 +1458,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1485,28 +1491,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1518,28 +1524,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1551,28 +1557,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1584,31 +1590,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1617,31 +1623,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1650,66 +1656,99 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>93</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>41</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
         <v>73</v>
       </c>
-      <c t="s" r="Q29" s="12">
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>94</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>814.09000000000003</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>93</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>94</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>832.09000000000003</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
         <v>95</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>96</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>97</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1833,10 +1872,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -290,13 +290,22 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>مناديل شمع</t>
   </si>
   <si>
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 1:18 PM</t>
+    <t>Sunday, 14 September, 2025 1:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1696,7 +1705,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1706,49 +1715,82 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>832.09000000000003</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>95</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>96</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>41</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>73</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>97</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>852.09000000000003</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>98</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>99</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>100</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1877,10 +1919,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -80,13 +80,16 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>10:2</t>
+    <t>9:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>1:2</t>
   </si>
   <si>
     <t>DOLO-D ORAL SUSP. 115 ML</t>
@@ -305,7 +308,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 1:23 PM</t>
+    <t>Sunday, 14 September, 2025 1:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1029,7 +1032,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1038,7 +1041,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1055,11 +1058,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1071,7 +1074,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1092,7 +1095,7 @@
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1104,14 +1107,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1121,11 +1124,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1137,14 +1140,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1154,14 +1157,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1170,14 +1173,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1187,11 +1190,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1203,14 +1206,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1220,11 +1223,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1236,14 +1239,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1253,11 +1256,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1269,14 +1272,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1286,11 +1289,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1302,7 +1305,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1319,11 +1322,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1335,7 +1338,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1352,11 +1355,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1368,7 +1371,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1385,11 +1388,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1401,7 +1404,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1418,11 +1421,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1434,14 +1437,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1451,11 +1454,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1467,31 +1470,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1500,28 +1503,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1533,28 +1536,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1566,28 +1569,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1599,28 +1602,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1632,31 +1635,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1665,28 +1668,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1698,28 +1701,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1731,28 +1734,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1760,13 +1763,13 @@
     </row>
     <row r="32" ht="25.5" customHeight="1">
       <c r="P32" s="13">
-        <v>852.09000000000003</v>
+        <v>915.92999999999995</v>
       </c>
       <c r="Q32" s="13"/>
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c t="s" r="A33" s="14">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1774,13 +1777,13 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c t="s" r="G33" s="15">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="16"/>
       <c t="s" r="K33" s="17">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>TRESS HAIR OIL 120 ML</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -308,7 +317,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 1:42 PM</t>
+    <t>Sunday, 14 September, 2025 1:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1411,7 +1420,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1428,7 +1437,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1444,7 +1453,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1454,14 +1463,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1470,31 +1479,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1503,20 +1512,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1527,7 +1536,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1549,15 +1558,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1569,7 +1578,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1582,15 +1591,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1615,7 +1624,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1642,24 +1651,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1668,20 +1677,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1692,7 +1701,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1708,24 +1717,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1741,59 +1750,92 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>915.92999999999995</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>99</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>100</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>42</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>77</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>101</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1075.9300000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>102</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>103</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>104</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1927,10 +1969,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -152,9 +164,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -317,7 +326,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 1:47 PM</t>
+    <t>Sunday, 14 September, 2025 1:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1206,7 +1215,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1265,14 +1274,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1281,14 +1290,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1321,7 +1330,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1338,7 +1347,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1387,7 +1396,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1404,7 +1413,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1420,7 +1429,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1437,7 +1446,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1453,7 +1462,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1470,7 +1479,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1486,7 +1495,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1496,14 +1505,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1512,31 +1521,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1545,20 +1554,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1569,7 +1578,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1585,21 +1594,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1611,28 +1620,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1651,13 +1660,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1684,24 +1693,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1710,20 +1719,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1734,7 +1743,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1750,24 +1759,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1783,59 +1792,92 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1075.9300000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>102</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>103</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>46</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>80</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>104</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1079.77</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>105</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>106</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>107</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1974,10 +2016,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -107,6 +107,21 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
@@ -131,9 +146,6 @@
     <t>17.2800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -158,6 +170,18 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -251,9 +275,6 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -272,6 +293,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -287,9 +311,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>شمع حريمي</t>
   </si>
   <si>
@@ -326,7 +347,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 1:56 PM</t>
+    <t>Sunday, 14 September, 2025 2:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1138,18 +1159,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1158,14 +1179,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1175,14 +1196,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1215,7 +1236,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1248,7 +1269,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1274,11 +1295,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1290,14 +1311,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1307,11 +1328,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1323,14 +1344,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1340,14 +1361,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1356,14 +1377,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1373,14 +1394,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1389,14 +1410,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1406,14 +1427,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1422,14 +1443,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1439,14 +1460,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1455,7 +1476,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1472,11 +1493,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1488,14 +1509,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1505,11 +1526,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1521,14 +1542,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1538,11 +1559,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1554,31 +1575,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1587,20 +1608,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1627,24 +1648,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1653,28 +1674,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1686,31 +1707,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1719,31 +1740,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1752,31 +1773,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1798,18 +1819,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1818,66 +1839,132 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>108</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>34</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>88</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1079.77</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>105</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>106</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>107</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>110</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>50</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>34</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>111</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1227.81</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>112</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>113</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>114</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2021,10 +2108,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -170,6 +170,24 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MEGAPRAZOLE 40 MG VIAL. FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -188,9 +206,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -221,6 +236,12 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -248,6 +269,18 @@
     <t>160.0000</t>
   </si>
   <si>
+    <t>TRITONE 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -269,6 +302,12 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>ZYMAGALLIN 30 TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>ايزي سويت 3 قطع</t>
   </si>
   <si>
@@ -281,6 +320,27 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>46:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>زيت جونسون صغير</t>
   </si>
   <si>
@@ -302,7 +362,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -326,10 +386,16 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
   </si>
   <si>
     <t>معجون سيجنال 25 مل</t>
@@ -338,16 +404,13 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>مناديل شمع</t>
   </si>
   <si>
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 2:28 PM</t>
+    <t>Sunday, 14 September, 2025 2:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1318,7 +1381,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1328,14 +1391,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1344,14 +1407,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1361,11 +1424,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1377,14 +1440,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1394,11 +1457,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1410,14 +1473,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1427,14 +1490,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1443,14 +1506,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1460,14 +1523,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1476,14 +1539,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1493,14 +1556,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1509,14 +1572,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1526,14 +1589,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1542,14 +1605,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1559,14 +1622,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1575,14 +1638,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1592,14 +1655,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1608,14 +1671,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1625,14 +1688,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1641,31 +1704,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1674,31 +1737,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1707,31 +1770,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1740,28 +1803,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1773,7 +1836,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1786,18 +1849,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1806,14 +1869,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1823,11 +1886,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>42</v>
@@ -1839,14 +1902,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1863,7 +1926,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1889,7 +1952,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -1926,45 +1989,309 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1227.81</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>112</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>113</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>50</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>34</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>95</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>115</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>50</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>34</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>116</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>118</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>50</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>34</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>119</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>120</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>121</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>34</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>122</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>124</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>50</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>34</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>105</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>126</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>127</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>34</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>47</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>129</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>130</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>34</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>101</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>131</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>50</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>34</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>132</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1474.8399999999999</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>133</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>134</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>135</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2118,10 +2445,50 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -281,6 +281,9 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -410,7 +413,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 2:34 PM</t>
+    <t>Sunday, 14 September, 2025 4:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1777,7 +1780,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1787,14 +1790,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1803,14 +1806,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1820,14 +1823,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1836,14 +1839,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1853,14 +1856,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1869,31 +1872,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1902,14 +1905,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1919,14 +1922,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1935,14 +1938,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1952,11 +1955,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1968,14 +1971,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1985,11 +1988,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2001,7 +2004,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2018,14 +2021,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2034,7 +2037,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2051,14 +2054,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2067,7 +2070,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2084,14 +2087,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2100,14 +2103,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2117,14 +2120,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2133,14 +2136,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2150,14 +2153,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2166,14 +2169,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2183,14 +2186,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2199,14 +2202,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2216,14 +2219,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2232,14 +2235,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2249,49 +2252,82 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1474.8399999999999</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>132</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>50</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>34</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>133</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1498.8399999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
         <v>134</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
         <v>135</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>136</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2485,10 +2521,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -62,6 +62,9 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -158,12 +161,21 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>124.00</t>
   </si>
   <si>
@@ -284,6 +296,15 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -413,7 +434,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 4:13 PM</t>
+    <t>Sunday, 14 September, 2025 4:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1087,7 +1108,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1097,14 +1118,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1113,14 +1134,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1130,14 +1151,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1146,14 +1167,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1163,14 +1184,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1179,14 +1200,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1196,14 +1217,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1212,31 +1233,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1245,31 +1266,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1278,14 +1299,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1295,14 +1316,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1311,14 +1332,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1328,14 +1349,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1344,14 +1365,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1361,14 +1382,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1377,14 +1398,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1394,14 +1415,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1410,14 +1431,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1427,11 +1448,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1443,14 +1464,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1460,14 +1481,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1476,14 +1497,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1493,11 +1514,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1509,14 +1530,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1526,14 +1547,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1542,14 +1563,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1559,14 +1580,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1575,14 +1596,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1592,14 +1613,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1608,14 +1629,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1625,14 +1646,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1641,7 +1662,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1658,11 +1679,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1674,14 +1695,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1691,14 +1712,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1707,7 +1728,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1724,11 +1745,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1740,14 +1761,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1757,14 +1778,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1773,14 +1794,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1790,11 +1811,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1806,14 +1827,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1830,7 +1851,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1846,7 +1867,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1856,11 +1877,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1872,14 +1893,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1889,14 +1910,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1905,31 +1926,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1938,28 +1959,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1971,31 +1992,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2004,31 +2025,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2037,31 +2058,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2070,31 +2091,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2103,28 +2124,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2143,24 +2164,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2169,31 +2190,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2202,31 +2223,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2235,31 +2256,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2275,59 +2296,158 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>134</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>135</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>35</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>48</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>137</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>138</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>35</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>109</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1498.8399999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>134</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>135</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>136</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>139</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>51</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>35</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>140</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1722.8399999999999</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>141</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>142</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>143</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2526,10 +2646,25 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -434,7 +434,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 4:14 PM</t>
+    <t>Sunday, 14 September, 2025 4:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -65,6 +65,33 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -77,9 +104,6 @@
     <t>11.8800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -173,6 +197,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>GROSS CREAM</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -200,6 +233,15 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -377,24 +419,27 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>4.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
     <t>شمع حريمي</t>
   </si>
   <si>
@@ -434,7 +479,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 4:25 PM</t>
+    <t>Sunday, 14 September, 2025 4:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1158,7 +1203,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1167,14 +1212,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1184,14 +1229,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>26</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1200,14 +1245,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1224,7 +1269,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1240,7 +1285,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1250,14 +1295,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1266,31 +1311,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1299,14 +1344,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1316,14 +1361,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1332,20 +1377,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1356,7 +1401,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1389,7 +1434,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1422,7 +1467,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1438,7 +1483,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1448,14 +1493,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1464,14 +1509,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1481,14 +1526,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1497,28 +1542,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1530,14 +1575,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1547,14 +1592,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1563,14 +1608,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1580,14 +1625,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1596,14 +1641,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1613,14 +1658,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1629,14 +1674,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1646,14 +1691,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1662,14 +1707,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1679,14 +1724,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1695,14 +1740,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1712,14 +1757,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1728,14 +1773,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1745,14 +1790,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1761,14 +1806,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1778,14 +1823,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1794,7 +1839,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1811,11 +1856,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1827,14 +1872,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1844,14 +1889,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1860,14 +1905,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1877,11 +1922,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1893,14 +1938,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1910,14 +1955,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1926,14 +1971,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1943,14 +1988,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1959,14 +2004,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1976,14 +2021,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1992,7 +2037,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2009,14 +2054,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2025,31 +2070,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2058,20 +2103,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2082,7 +2127,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2104,15 +2149,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2124,31 +2169,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2164,24 +2209,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2190,31 +2235,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2223,28 +2268,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2256,31 +2301,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2289,31 +2334,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>39</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2322,31 +2367,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2355,28 +2400,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2388,66 +2433,198 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1722.8399999999999</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>141</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>142</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
-        <v>143</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>147</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>59</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>43</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>127</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>149</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>150</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>43</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>56</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>152</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>153</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>43</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>123</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>154</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>59</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>43</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>155</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>1982.8399999999999</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>156</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>157</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>158</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2661,10 +2838,30 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -479,7 +479,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 4:50 PM</t>
+    <t>Sunday, 14 September, 2025 4:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -479,7 +479,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 4:59 PM</t>
+    <t>Sunday, 14 September, 2025 5:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>17.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -110,9 +122,6 @@
     <t>9:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>79.6800</t>
   </si>
   <si>
@@ -137,9 +146,6 @@
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -369,9 +375,6 @@
   </si>
   <si>
     <t>ZYMAGALLIN 30 TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
   </si>
   <si>
     <t>ايزي سويت 3 قطع</t>
@@ -1153,7 +1156,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1163,14 +1166,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1179,14 +1182,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1196,11 +1199,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1212,14 +1215,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1229,14 +1232,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1269,7 +1272,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1302,7 +1305,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1311,14 +1314,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1328,14 +1331,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1351,7 +1354,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1361,14 +1364,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1377,31 +1380,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1410,31 +1413,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1443,14 +1446,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1460,14 +1463,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1476,14 +1479,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1493,14 +1496,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1509,14 +1512,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1526,14 +1529,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1542,28 +1545,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1575,28 +1578,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1608,14 +1611,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1625,14 +1628,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1641,14 +1644,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1658,14 +1661,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1674,14 +1677,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1691,11 +1694,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1707,14 +1710,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1724,14 +1727,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1740,14 +1743,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1757,14 +1760,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1790,14 +1793,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1806,14 +1809,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1823,14 +1826,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1839,14 +1842,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1856,14 +1859,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1872,14 +1875,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1889,14 +1892,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1912,7 +1915,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1922,14 +1925,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1938,14 +1941,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1955,14 +1958,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1971,14 +1974,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1988,14 +1991,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2004,14 +2007,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2021,14 +2024,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2037,14 +2040,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2054,14 +2057,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2070,14 +2073,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2087,11 +2090,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2103,14 +2106,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2120,14 +2123,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2136,14 +2139,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2153,14 +2156,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2169,14 +2172,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2186,14 +2189,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2209,24 +2212,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2235,31 +2238,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2268,28 +2271,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2301,28 +2304,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2334,31 +2337,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2367,31 +2370,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2400,31 +2403,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2433,31 +2436,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2466,31 +2469,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2499,31 +2502,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2532,31 +2535,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2565,66 +2568,99 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>1982.8399999999999</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>155</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>61</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>45</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>156</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>1998.6800000000001</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
         <v>157</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
         <v>158</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>159</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2858,10 +2894,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -62,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BRONCHONEER 30 TAB</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BRUFEN 200MG 30 TAB</t>
   </si>
   <si>
@@ -74,9 +101,6 @@
     <t>15.8400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -140,7 +164,10 @@
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
   </si>
   <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
@@ -170,9 +197,6 @@
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -194,9 +218,6 @@
     <t>FROST GEL 100 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -380,9 +401,6 @@
     <t>ايزي سويت 3 قطع</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -395,9 +413,6 @@
     <t>29:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>15.0000</t>
   </si>
   <si>
@@ -410,6 +425,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>زيت جونسون صغير</t>
   </si>
   <si>
@@ -428,9 +452,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>9.0000</t>
   </si>
   <si>
@@ -455,6 +476,12 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -482,7 +509,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 5:00 PM</t>
+    <t>Sunday, 14 September, 2025 5:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1189,7 +1216,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1199,14 +1226,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1215,14 +1242,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1232,14 +1259,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1248,14 +1275,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1265,11 +1292,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1331,14 +1358,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1354,7 +1381,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1364,14 +1391,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1380,14 +1407,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1397,14 +1424,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1413,28 +1440,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1446,14 +1473,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1463,14 +1490,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1479,31 +1506,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1512,14 +1539,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1529,11 +1556,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1545,14 +1572,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1569,7 +1596,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1585,24 +1612,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1611,14 +1638,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1628,14 +1655,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1644,31 +1671,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1677,14 +1704,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1694,14 +1721,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1710,7 +1737,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1727,14 +1754,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1743,14 +1770,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1783,7 +1810,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1793,14 +1820,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1809,14 +1836,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1826,14 +1853,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1842,14 +1869,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1859,11 +1886,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1882,7 +1909,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1892,14 +1919,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1908,14 +1935,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1925,14 +1952,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1941,14 +1968,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1958,14 +1985,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1974,14 +2001,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1991,14 +2018,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2007,14 +2034,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2024,14 +2051,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2040,14 +2067,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2064,7 +2091,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2080,7 +2107,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2090,14 +2117,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2106,14 +2133,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2123,14 +2150,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2139,14 +2166,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2156,11 +2183,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2172,14 +2199,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2189,14 +2216,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2212,7 +2239,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2222,14 +2249,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2238,31 +2265,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2271,31 +2298,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2304,28 +2331,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2337,31 +2364,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2370,31 +2397,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2410,13 +2437,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2427,7 +2454,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2443,13 +2470,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2460,7 +2487,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2476,24 +2503,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2502,31 +2529,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2535,31 +2562,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2568,28 +2595,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2608,59 +2635,191 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>157</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>52</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>54</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>14</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>159</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>160</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>54</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>66</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>1998.6800000000001</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>157</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>158</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>159</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>162</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>163</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>54</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>130</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>164</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>52</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>54</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>165</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2082.1900000000001</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>166</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>167</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>168</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2899,10 +3058,30 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -509,7 +509,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 5:59 PM</t>
+    <t>Sunday, 14 September, 2025 6:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -47,360 +47,390 @@
     <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
   </si>
   <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>BRONCHONEER 30 TAB</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DOLO-D ORAL SUSP. 115 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GROSS CREAM</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MEGAPRAZOLE 40 MG VIAL. FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>TRESS HAIR OIL 120 ML</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>TRITONE 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>VITACID C 1GM 12 EFF. TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8267:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>ZYMAGALLIN 30 TAB</t>
+  </si>
+  <si>
+    <t>ايزي سويت 3 قطع</t>
+  </si>
+  <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>BRONCHONEER 30 TAB</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>BRUFEN 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>BRUFEN 400MG 30 TAB</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>79.6800</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DOLO-D ORAL SUSP. 115 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FROST GEL 100 GM</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>GROSS CREAM</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>MEGAPRAZOLE 40 MG VIAL. FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>15.3600</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>PRIDOCAINE CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>9.6000</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>TORSAMOLEX 20MG 20 TABS</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>TRESS HAIR OIL 120 ML</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>TRITONE 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8267:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>ZYMAGALLIN 30 TAB</t>
-  </si>
-  <si>
-    <t>ايزي سويت 3 قطع</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -509,7 +539,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 6:08 PM</t>
+    <t>Sunday, 14 September, 2025 6:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1678,13 +1708,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1695,7 +1725,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1717,7 +1747,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1761,7 +1791,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1777,7 +1807,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1794,7 +1824,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1810,7 +1840,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1843,7 +1873,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1853,14 +1883,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1869,14 +1899,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1886,14 +1916,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1902,14 +1932,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1919,14 +1949,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1935,14 +1965,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1975,7 +2005,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1992,7 +2022,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2008,7 +2038,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2018,14 +2048,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2034,14 +2064,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2051,14 +2081,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2074,7 +2104,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2091,7 +2121,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2107,7 +2137,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2124,7 +2154,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2140,7 +2170,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2150,14 +2180,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2166,14 +2196,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2183,14 +2213,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2199,14 +2229,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2216,11 +2246,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2239,7 +2269,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,14 +2279,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2272,7 +2302,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2282,11 +2312,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2298,14 +2328,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2315,14 +2345,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2331,31 +2361,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2364,28 +2394,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2397,31 +2427,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2437,7 +2467,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2447,14 +2477,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2463,14 +2493,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2480,11 +2510,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2496,14 +2526,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,14 +2543,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2529,7 +2559,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2546,14 +2576,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2562,7 +2592,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2579,11 +2609,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2595,14 +2625,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2612,14 +2642,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2628,14 +2658,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,14 +2675,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2661,7 +2691,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2678,14 +2708,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2694,14 +2724,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2711,11 +2741,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2727,14 +2757,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2744,11 +2774,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2760,7 +2790,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2777,49 +2807,148 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2082.1900000000001</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>166</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>167</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>168</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>169</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>170</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>54</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>66</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>172</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>173</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>54</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>140</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>174</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>52</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>54</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>175</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2312.1799999999998</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>176</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>177</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>178</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3078,10 +3207,25 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -215,6 +215,27 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
     <t>FROST GEL 100 GM</t>
   </si>
   <si>
@@ -293,192 +314,195 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>TRESS HAIR OIL 120 ML</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>TRITONE 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>VITACID C 1GM 12 EFF. TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8267:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>ZYMAGALLIN 30 TAB</t>
+  </si>
+  <si>
+    <t>ايزي سويت 3 قطع</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>46:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>PRIDOCAINE CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>9.6000</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>TORSAMOLEX 20MG 20 TABS</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>TRESS HAIR OIL 120 ML</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>TRITONE 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>VITACID C 1GM 12 EFF. TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8267:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>ZYMAGALLIN 30 TAB</t>
-  </si>
-  <si>
-    <t>ايزي سويت 3 قطع</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>46:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -524,9 +548,6 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -539,7 +560,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 6:31 PM</t>
+    <t>Sunday, 14 September, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1675,7 +1696,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1692,7 +1713,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1708,21 +1729,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -1734,7 +1755,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1747,15 +1768,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1767,14 +1788,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1784,14 +1805,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1800,31 +1821,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1833,14 +1854,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1850,11 +1871,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1866,14 +1887,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1883,14 +1904,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1899,14 +1920,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1923,7 +1944,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1939,7 +1960,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1949,11 +1970,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1965,14 +1986,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1982,11 +2003,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -1998,14 +2019,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2015,14 +2036,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2038,7 +2059,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2048,14 +2069,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2064,14 +2085,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2081,14 +2102,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2097,28 +2118,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2130,14 +2151,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2147,14 +2168,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2163,14 +2184,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2180,14 +2201,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2196,14 +2217,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2220,7 +2241,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2236,7 +2257,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2246,14 +2267,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2262,14 +2283,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2279,11 +2300,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2295,14 +2316,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2312,14 +2333,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2328,14 +2349,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2345,11 +2366,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2368,7 +2389,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2378,14 +2399,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2394,14 +2415,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2411,11 +2432,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2427,14 +2448,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2444,14 +2465,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2460,31 +2481,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2493,28 +2514,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2526,31 +2547,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2576,14 +2597,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2592,14 +2613,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2609,11 +2630,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2625,14 +2646,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2642,14 +2663,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2658,7 +2679,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2675,14 +2696,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2731,7 +2752,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2741,14 +2762,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2757,14 +2778,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2774,14 +2795,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2790,7 +2811,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2807,14 +2828,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2840,11 +2861,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2856,14 +2877,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2873,11 +2894,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2889,7 +2910,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2906,49 +2927,148 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2312.1799999999998</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>176</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>177</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
         <v>178</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>54</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>66</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>179</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>180</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>54</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>147</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>181</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>52</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>54</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>182</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2536.2800000000002</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>183</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>184</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>185</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3222,10 +3342,25 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -560,7 +560,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 6:50 PM</t>
+    <t>Sunday, 14 September, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -104,6 +104,30 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -167,9 +191,6 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
@@ -263,6 +284,15 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t>GROWTH FORMULA WG 400 GRAM PD.</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>245.0000</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -272,12 +302,21 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -338,6 +377,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t xml:space="preserve">POSHURIC2.4/2.5GM  SACHET</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>182.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -371,6 +419,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>TORSAMOLEX 20MG 20 TABS</t>
   </si>
   <si>
@@ -422,6 +479,15 @@
     <t>54.00</t>
   </si>
   <si>
+    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -500,9 +566,6 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -539,9 +602,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -560,7 +620,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 7:02 PM</t>
+    <t>Sunday, 14 September, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1416,7 +1476,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1449,7 +1509,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1475,14 +1535,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1498,7 +1558,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1508,14 +1568,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1524,14 +1584,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1541,14 +1601,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1557,31 +1617,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1590,14 +1650,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1607,14 +1667,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1623,20 +1683,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1647,7 +1707,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1680,7 +1740,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1696,7 +1756,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1713,7 +1773,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1735,7 +1795,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1762,7 +1822,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1779,7 +1839,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1795,21 +1855,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1821,28 +1881,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1854,14 +1914,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1871,14 +1931,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1887,31 +1947,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1920,14 +1980,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1937,11 +1997,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1953,14 +2013,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1970,11 +2030,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1986,14 +2046,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2003,14 +2063,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2019,7 +2079,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2036,14 +2096,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2052,14 +2112,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2076,7 +2136,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2092,7 +2152,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2109,7 +2169,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2125,24 +2185,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2151,14 +2211,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2168,14 +2228,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2191,7 +2251,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2201,14 +2261,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2217,14 +2277,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2234,14 +2294,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2250,31 +2310,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2283,28 +2343,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2316,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2333,14 +2393,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2349,14 +2409,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2366,14 +2426,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2382,14 +2442,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2399,14 +2459,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2415,14 +2475,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2432,14 +2492,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2448,14 +2508,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2465,14 +2525,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2481,14 +2541,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2498,14 +2558,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2514,14 +2574,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2531,14 +2591,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2547,14 +2607,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2564,14 +2624,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2580,31 +2640,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2613,28 +2673,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2646,28 +2706,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2679,31 +2739,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2712,31 +2772,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2745,31 +2805,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2778,31 +2838,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>163</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2811,31 +2871,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2844,31 +2904,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2877,28 +2937,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2910,31 +2970,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2943,31 +3003,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2976,31 +3036,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3009,66 +3069,297 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2536.2800000000002</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>183</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>184</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>185</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>187</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>32</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>61</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>188</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>190</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>191</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>61</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>192</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>194</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>195</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>61</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>169</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>196</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>32</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>61</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>14</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>197</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>198</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>61</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>73</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>199</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>200</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>61</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>169</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>201</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>32</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>61</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>202</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3222.98</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>203</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>204</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>205</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3357,10 +3648,45 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -620,7 +620,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 7:18 PM</t>
+    <t>Sunday, 14 September, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -140,6 +140,12 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -194,9 +200,6 @@
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>396.00</t>
   </si>
   <si>
@@ -266,6 +269,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>FUNGICARE SOAP 80 GM</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -314,6 +326,18 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>143.6400</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 5 CAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -458,6 +482,15 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>318.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -587,9 +620,6 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>100.0000</t>
   </si>
   <si>
@@ -620,7 +650,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 7:26 PM</t>
+    <t>Sunday, 14 September, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1525,24 +1555,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1551,14 +1581,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1568,11 +1598,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1584,14 +1614,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1601,14 +1631,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1617,14 +1647,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1634,14 +1664,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1650,14 +1680,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1667,14 +1697,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1690,24 +1720,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1716,31 +1746,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1749,14 +1779,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1766,14 +1796,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1782,14 +1812,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1799,14 +1829,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1815,14 +1845,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1832,11 +1862,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1848,28 +1878,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1881,31 +1911,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1914,14 +1944,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1931,14 +1961,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1947,28 +1977,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1980,14 +2010,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1997,14 +2027,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2013,28 +2043,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2046,14 +2076,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2063,11 +2093,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2079,7 +2109,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2096,14 +2126,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2112,14 +2142,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2129,11 +2159,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2145,14 +2175,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2162,14 +2192,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2178,14 +2208,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2195,14 +2225,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2211,7 +2241,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2228,14 +2258,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2244,14 +2274,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2261,14 +2291,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2277,14 +2307,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2294,14 +2324,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2310,31 +2340,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,7 +2373,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2356,18 +2386,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2376,14 +2406,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,14 +2423,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2409,14 +2439,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2426,14 +2456,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2442,28 +2472,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2475,31 +2505,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2508,14 +2538,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,14 +2555,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2541,14 +2571,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,14 +2588,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2574,14 +2604,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2591,14 +2621,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,14 +2637,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,14 +2654,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2640,14 +2670,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2657,14 +2687,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2673,14 +2703,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2690,11 +2720,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2706,14 +2736,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2723,14 +2753,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2746,7 +2776,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,14 +2786,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,14 +2802,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,14 +2819,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2805,14 +2835,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2822,14 +2852,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,7 +2868,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2855,14 +2885,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2871,31 +2901,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2904,31 +2934,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2937,31 +2967,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2970,28 +3000,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3003,7 +3033,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3016,18 +3046,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3036,31 +3066,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,31 +3099,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3102,28 +3132,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3135,31 +3165,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3168,28 +3198,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3201,7 +3231,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3214,18 +3244,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>65</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3234,31 +3264,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3267,28 +3297,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3307,59 +3337,224 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3222.98</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>203</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>204</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
         <v>205</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>44</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>180</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>206</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>32</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>44</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>14</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>207</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>208</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>44</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>74</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>209</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>210</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>44</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>180</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>211</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>32</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>44</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>212</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3842.6199999999999</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>213</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>214</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>215</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3683,10 +3878,35 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -650,7 +650,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 7:32 PM</t>
+    <t>Sunday, 14 September, 2025 7:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -434,6 +434,27 @@
     <t>9.6000</t>
   </si>
   <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>SELOKENZOC 50 MG 28 PROLONGED REL. TABS</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>94.0000</t>
+  </si>
+  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -446,9 +467,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -650,7 +668,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 7:35 PM</t>
+    <t>Sunday, 14 September, 2025 7:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2281,7 +2299,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2611,7 +2629,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2621,11 +2639,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2637,14 +2655,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2658,10 +2676,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2670,14 +2688,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2687,14 +2705,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2720,14 +2738,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2743,7 +2761,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2776,7 +2794,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2786,11 +2804,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2802,14 +2820,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2819,14 +2837,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>159</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2835,7 +2853,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2852,14 +2870,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2868,7 +2886,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2885,14 +2903,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2918,14 +2936,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2934,14 +2952,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2951,14 +2969,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2984,14 +3002,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3007,7 +3025,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3017,14 +3035,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3033,14 +3051,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3050,11 +3068,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3066,31 +3084,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3099,31 +3117,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3132,14 +3150,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3149,14 +3167,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3172,7 +3190,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3182,7 +3200,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3205,7 +3223,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3215,7 +3233,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3248,14 +3266,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3264,7 +3282,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3281,14 +3299,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3297,7 +3315,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3314,14 +3332,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3330,14 +3348,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3347,14 +3365,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3370,7 +3388,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3380,11 +3398,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3396,14 +3414,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3413,14 +3431,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3429,14 +3447,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3446,14 +3464,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3462,14 +3480,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3479,14 +3497,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3495,14 +3513,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3512,49 +3530,115 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3842.6199999999999</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>213</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>214</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>215</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>216</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>44</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>186</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>217</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>32</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>44</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>218</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3981.6199999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>219</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>220</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>221</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3903,10 +3987,20 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
   </si>
   <si>
@@ -116,6 +125,27 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CIDOLUT DEPOT 250MG 1 AMP.</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -251,9 +281,6 @@
     <t>FORADIL12 MG 60 CAPS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>560.00</t>
   </si>
   <si>
@@ -338,12 +365,24 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
+    <t>MEBO SEA 25MG CREAM</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>MEGAPRAZOLE 40 MG VIAL. FOR I.V. INF.</t>
   </si>
   <si>
@@ -614,7 +653,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -668,7 +707,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 7:38 PM</t>
+    <t>Sunday, 14 September, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1474,7 +1513,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1484,14 +1523,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1500,14 +1539,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1517,11 +1556,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1533,14 +1572,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1550,14 +1589,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1566,28 +1605,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1623,7 +1662,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1656,7 +1695,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1672,24 +1711,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1698,14 +1737,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1715,14 +1754,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1731,14 +1770,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1748,14 +1787,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1764,31 +1803,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1797,14 +1836,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1814,11 +1853,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1830,14 +1869,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1847,14 +1886,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1870,21 +1909,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1896,14 +1935,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1920,7 +1959,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1936,24 +1975,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1962,14 +2001,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1986,7 +2025,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2002,7 +2041,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2019,7 +2058,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2035,13 +2074,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2068,13 +2107,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2101,7 +2140,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2134,7 +2173,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2151,7 +2190,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2167,21 +2206,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2193,14 +2232,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2210,14 +2249,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2233,7 +2272,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2243,11 +2282,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2259,14 +2298,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2276,14 +2315,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2292,14 +2331,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2309,14 +2348,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2325,14 +2364,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2342,11 +2381,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2358,14 +2397,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2375,14 +2414,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2391,7 +2430,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2408,14 +2447,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2424,31 +2463,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2457,14 +2496,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2474,14 +2513,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2490,28 +2529,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2523,31 +2562,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2556,14 +2595,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2573,14 +2612,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2589,14 +2628,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2606,14 +2645,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2622,14 +2661,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2639,14 +2678,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2655,28 +2694,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2688,28 +2727,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2721,14 +2760,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2738,14 +2777,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2754,14 +2793,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2771,14 +2810,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2787,14 +2826,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2804,11 +2843,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2820,14 +2859,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,14 +2876,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2853,14 +2892,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,11 +2909,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2886,14 +2925,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,14 +2942,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>165</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2926,7 +2965,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2936,14 +2975,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2952,14 +2991,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,11 +3008,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2985,14 +3024,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,14 +3041,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3018,14 +3057,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3035,14 +3074,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3058,7 +3097,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3068,14 +3107,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>178</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3091,7 +3130,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,14 +3140,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3117,14 +3156,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3134,14 +3173,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3157,24 +3196,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,31 +3222,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3216,31 +3255,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,28 +3288,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3282,31 +3321,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3315,31 +3354,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3348,31 +3387,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3388,17 +3427,17 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3421,24 +3460,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3454,21 +3493,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3480,31 +3519,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3513,31 +3552,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3546,28 +3585,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3579,66 +3618,231 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3981.6199999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>219</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>220</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>221</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>223</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>224</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>54</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>199</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>225</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>35</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>54</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>14</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>226</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>227</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>54</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>84</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>228</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>229</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>54</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>199</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>230</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>35</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>54</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>231</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4225.29</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>232</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>233</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>234</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3997,10 +4201,35 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -671,6 +671,18 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>شمع حريمي</t>
   </si>
   <si>
@@ -707,7 +719,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 7:39 PM</t>
+    <t>Sunday, 14 September, 2025 8:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3635,11 +3647,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3651,14 +3663,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3668,14 +3680,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3684,14 +3696,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3701,14 +3713,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3717,14 +3729,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3734,14 +3746,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3750,14 +3762,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3767,14 +3779,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3783,14 +3795,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3800,49 +3812,82 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>234</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>35</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>54</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>235</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>200</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4225.29</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>232</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>233</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>234</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c t="s" r="Q82" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4235.29</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>236</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>237</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>238</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4226,10 +4271,15 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -62,15 +62,27 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>48.5100</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BRUFEN 200MG 30 TAB</t>
   </si>
   <si>
@@ -578,6 +587,12 @@
     <t>29.7000</t>
   </si>
   <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -617,10 +632,7 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>15.0000</t>
+    <t>28:0</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -653,7 +665,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -680,9 +692,6 @@
     <t>5.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>شمع حريمي</t>
   </si>
   <si>
@@ -695,9 +704,6 @@
     <t>قطن 100 جم</t>
   </si>
   <si>
-    <t>28:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -719,7 +725,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 8:09 PM</t>
+    <t>Sunday, 14 September, 2025 8:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1426,7 +1432,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1436,7 +1442,7 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
@@ -1459,7 +1465,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1469,14 +1475,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1485,14 +1491,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1502,11 +1508,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1518,14 +1524,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1535,11 +1541,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>25</v>
@@ -1558,7 +1564,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1568,11 +1574,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1584,14 +1590,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1601,11 +1607,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1617,14 +1623,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1657,7 +1663,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1667,14 +1673,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1683,14 +1689,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1700,14 +1706,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1716,31 +1722,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1749,28 +1755,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -1782,14 +1788,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1799,14 +1805,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1815,14 +1821,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1832,14 +1838,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1848,14 +1854,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1865,14 +1871,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>69</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1888,7 +1894,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1898,14 +1904,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1914,31 +1920,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1954,21 +1960,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1980,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2004,7 +2010,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2020,7 +2026,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2030,14 +2036,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2046,14 +2052,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2070,7 +2076,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2086,13 +2092,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2103,7 +2109,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2119,13 +2125,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2152,7 +2158,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2169,7 +2175,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2185,7 +2191,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2218,13 +2224,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2251,13 +2257,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2268,7 +2274,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2284,7 +2290,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2301,7 +2307,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2317,7 +2323,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2327,14 +2333,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2343,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2360,14 +2366,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2376,14 +2382,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2393,14 +2399,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2409,14 +2415,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2426,14 +2432,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2442,14 +2448,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2459,14 +2465,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2475,31 +2481,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2515,13 +2521,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2532,7 +2538,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2548,7 +2554,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2565,7 +2571,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2581,7 +2587,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2591,11 +2597,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2607,14 +2613,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2624,14 +2630,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2640,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2657,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2673,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2697,7 +2703,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2713,13 +2719,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2746,13 +2752,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2763,7 +2769,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2779,13 +2785,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2796,7 +2802,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2812,7 +2818,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2822,14 +2828,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2838,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2855,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2871,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2895,7 +2901,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2911,7 +2917,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2928,7 +2934,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2944,7 +2950,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2958,7 +2964,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2970,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2987,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3043,7 +3049,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3076,7 +3082,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3086,11 +3092,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3102,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3119,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>178</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3142,7 +3148,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3152,14 +3158,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>39</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3168,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3185,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3208,7 +3214,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3222,10 +3228,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3234,7 +3240,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3251,11 +3257,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3274,7 +3280,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3291,7 +3297,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3317,14 +3323,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3333,14 +3339,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3350,14 +3356,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3379,7 +3385,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3390,7 +3396,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3406,21 +3412,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3432,31 +3438,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3465,31 +3471,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3498,31 +3504,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3531,31 +3537,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3564,31 +3570,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3604,24 +3610,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3630,31 +3636,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3663,31 +3669,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3696,31 +3702,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3729,31 +3735,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3769,24 +3775,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3795,31 +3801,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3828,66 +3834,132 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4235.29</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>234</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>235</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>57</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>204</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>236</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>38</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>57</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
         <v>237</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4318.7700000000004</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
         <v>238</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>239</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>240</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4276,10 +4348,20 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -236,6 +236,9 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
@@ -314,6 +317,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -605,13 +617,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8267:0</t>
+    <t>8263:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>ZYMAGALLIN 30 TAB</t>
@@ -629,6 +641,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -665,9 +683,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -725,7 +740,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 8:16 PM</t>
+    <t>Sunday, 14 September, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1960,24 +1975,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1986,31 +2001,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2019,14 +2034,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,14 +2051,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2052,14 +2067,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,14 +2084,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2085,14 +2100,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,11 +2117,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2118,28 +2133,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2151,31 +2166,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,14 +2199,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2201,11 +2216,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2217,14 +2232,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2234,14 +2249,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2250,28 +2265,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2283,14 +2298,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,14 +2315,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,28 +2331,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2349,14 +2364,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,11 +2381,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,14 +2414,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2415,14 +2430,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,7 +2447,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2455,7 +2470,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,14 +2480,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,14 +2513,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,28 +2529,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,14 +2579,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,28 +2595,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2613,14 +2628,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,14 +2645,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2678,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,14 +2694,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,11 +2711,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2744,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,31 +2760,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,31 +2793,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,28 +2826,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2844,31 +2859,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2877,14 +2892,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,11 +2909,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2910,14 +2925,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,14 +2942,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,11 +2975,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2976,14 +2991,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +3008,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,14 +3024,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,14 +3041,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,14 +3057,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,14 +3074,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,11 +3107,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,11 +3140,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3148,7 +3163,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3173,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>181</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3191,14 +3206,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,7 +3222,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3224,14 +3239,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,14 +3255,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3272,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3273,14 +3288,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3305,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3321,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,11 +3338,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,11 +3371,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3372,14 +3387,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,11 +3404,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3405,14 +3420,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,11 +3437,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3438,31 +3453,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,31 +3486,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,14 +3519,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3521,14 +3536,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,14 +3552,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3554,11 +3569,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3570,14 +3585,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3587,14 +3602,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,14 +3618,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,14 +3635,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3636,7 +3651,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3653,14 +3668,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>158</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,7 +3684,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3686,11 +3701,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3702,14 +3717,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>38</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,14 +3734,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,14 +3750,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,14 +3767,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3768,14 +3783,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,11 +3800,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3801,14 +3816,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,14 +3833,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3851,11 +3866,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3867,14 +3882,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3884,11 +3899,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -3917,49 +3932,148 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4318.7700000000004</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>237</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
         <v>238</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>57</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>88</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>239</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
         <v>240</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>57</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>208</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>241</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>38</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>57</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>242</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4452.7700000000004</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>243</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>244</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>245</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4358,10 +4472,25 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -740,7 +740,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 8:17 PM</t>
+    <t>Sunday, 14 September, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -719,6 +719,9 @@
     <t>قطن 100 جم</t>
   </si>
   <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -740,7 +743,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 8:18 PM</t>
+    <t>Sunday, 14 September, 2025 8:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3922,7 +3925,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3932,14 +3935,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3955,7 +3958,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3965,14 +3968,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3981,14 +3984,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3998,14 +4001,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4014,14 +4017,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4031,49 +4034,82 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>242</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>38</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>57</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>243</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>209</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4452.7700000000004</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>243</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c t="s" r="Q88" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4462.7700000000004</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
         <v>244</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
         <v>245</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>246</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4487,10 +4523,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -743,7 +743,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 8:19 PM</t>
+    <t>Sunday, 14 September, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -584,6 +584,9 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>VITACID C 1GM 12 EFF. TAB.</t>
   </si>
   <si>
@@ -743,7 +746,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 8:20 PM</t>
+    <t>Sunday, 14 September, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3331,7 +3334,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3341,11 +3344,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3357,14 +3360,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3374,14 +3377,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3390,14 +3393,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3407,14 +3410,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3423,14 +3426,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3440,14 +3443,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3456,14 +3459,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3473,14 +3476,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3489,14 +3492,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3506,14 +3509,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3529,24 +3532,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3555,14 +3558,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3572,14 +3575,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3588,14 +3591,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3605,14 +3608,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3621,14 +3624,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3638,14 +3641,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3654,14 +3657,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3671,11 +3674,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3687,7 +3690,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3704,11 +3707,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3720,7 +3723,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3737,14 +3740,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3770,14 +3773,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>162</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3786,7 +3789,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3803,14 +3806,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3819,14 +3822,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3836,14 +3839,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3852,14 +3855,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3869,11 +3872,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3885,14 +3888,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3902,14 +3905,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3925,7 +3928,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3935,11 +3938,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -3958,7 +3961,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3968,14 +3971,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3991,7 +3994,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4001,14 +4004,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4017,14 +4020,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4034,14 +4037,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4050,14 +4053,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4067,49 +4070,82 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4462.7700000000004</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>243</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>38</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>57</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
         <v>244</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4488.7700000000004</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
         <v>245</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
         <v>246</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>247</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4528,10 +4564,15 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -209,6 +218,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -746,7 +764,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 8:21 PM</t>
+    <t>Sunday, 14 September, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1717,7 +1735,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1727,14 +1745,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1743,14 +1761,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1760,11 +1778,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>25</v>
@@ -1776,28 +1794,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -1809,31 +1827,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1842,14 +1860,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1859,11 +1877,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1875,14 +1893,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1892,14 +1910,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1908,31 +1926,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1941,14 +1959,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1958,14 +1976,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1974,7 +1992,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1991,11 +2009,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -2007,31 +2025,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2040,14 +2058,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2057,11 +2075,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2073,31 +2091,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2106,14 +2124,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2123,14 +2141,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2139,14 +2157,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2156,14 +2174,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2172,20 +2190,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2212,7 +2230,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2229,7 +2247,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2245,13 +2263,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2262,7 +2280,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2278,7 +2296,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2311,7 +2329,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2328,7 +2346,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2344,13 +2362,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2377,7 +2395,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2394,7 +2412,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2410,13 +2428,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2443,7 +2461,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2453,11 +2471,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2469,14 +2487,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2486,14 +2504,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2509,7 +2527,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2519,11 +2537,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2535,14 +2553,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2552,14 +2570,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2568,14 +2586,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2585,14 +2603,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2601,24 +2619,24 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2634,14 +2652,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2651,14 +2669,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2674,13 +2692,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2707,7 +2725,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2717,14 +2735,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2733,14 +2751,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2750,14 +2768,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2806,7 +2824,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2816,14 +2834,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2832,20 +2850,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2856,7 +2874,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2872,13 +2890,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2889,7 +2907,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2905,13 +2923,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2938,24 +2956,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2964,14 +2982,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3004,7 +3022,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,14 +3032,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3030,14 +3048,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3070,7 +3088,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3084,10 +3102,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3096,14 +3114,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,14 +3131,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3129,14 +3147,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3146,14 +3164,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3169,7 +3187,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3202,7 +3220,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3212,11 +3230,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3228,14 +3246,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3245,14 +3263,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>185</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3261,7 +3279,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3278,14 +3296,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3294,7 +3312,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3311,14 +3329,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3327,14 +3345,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3344,14 +3362,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3360,14 +3378,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3377,11 +3395,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3393,14 +3411,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,14 +3428,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3426,14 +3444,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,11 +3461,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3459,14 +3477,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,11 +3494,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3492,14 +3510,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3509,14 +3527,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3525,14 +3543,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3542,11 +3560,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3558,31 +3576,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3591,31 +3609,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3637,15 +3655,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3657,28 +3675,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3690,31 +3708,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3730,17 +3748,17 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3769,18 +3787,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3789,7 +3807,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3802,18 +3820,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>162</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3822,7 +3840,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3835,18 +3853,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3855,31 +3873,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3895,24 +3913,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3928,24 +3946,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3954,31 +3972,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3987,31 +4005,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4020,31 +4038,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4053,31 +4071,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4086,66 +4104,132 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4488.7700000000004</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>245</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>246</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>247</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>248</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>60</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>215</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>249</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>38</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>60</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>250</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4552.3199999999997</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>251</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>252</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>253</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4569,10 +4653,20 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -440,6 +440,15 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>NO GRAVIDA 12 VAGINAL SUPP.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -764,7 +773,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 8:22 PM</t>
+    <t>Sunday, 14 September, 2025 8:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2791,7 +2800,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2801,14 +2810,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2817,14 +2826,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2834,14 +2843,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2850,14 +2859,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2883,14 +2892,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2923,13 +2932,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2940,7 +2949,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2956,7 +2965,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2989,13 +2998,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3022,7 +3031,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3032,14 +3041,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3048,14 +3057,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3065,14 +3074,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3081,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3154,7 +3163,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3168,10 +3177,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3197,11 +3206,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3220,7 +3229,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3237,7 +3246,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3253,7 +3262,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3270,7 +3279,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3286,7 +3295,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3296,14 +3305,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3329,14 +3338,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>191</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3352,7 +3361,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3362,14 +3371,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3378,14 +3387,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3395,14 +3404,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3418,7 +3427,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3428,11 +3437,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3444,14 +3453,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3461,11 +3470,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3494,14 +3503,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3517,7 +3526,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3527,14 +3536,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3560,14 +3569,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3583,7 +3592,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3642,31 +3651,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3675,14 +3684,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3696,10 +3705,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3708,14 +3717,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3741,14 +3750,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3758,14 +3767,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3781,7 +3790,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3791,7 +3800,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3873,7 +3882,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>168</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3906,7 +3915,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3923,14 +3932,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3946,7 +3955,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3989,11 +3998,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4012,7 +4021,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4022,14 +4031,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4059,7 +4068,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4071,14 +4080,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4088,14 +4097,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4154,14 +4163,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4187,49 +4196,82 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4552.3199999999997</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>251</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>252</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>38</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>60</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
         <v>253</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4636.3199999999997</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>254</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>255</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>256</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4663,10 +4705,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CIDOLUT DEPOT 250MG 1 AMP.</t>
   </si>
   <si>
@@ -476,9 +485,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -773,7 +779,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 8:30 PM</t>
+    <t>Sunday, 14 September, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1711,7 +1717,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1744,7 +1750,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1761,7 +1767,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1777,7 +1783,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1787,14 +1793,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1803,14 +1809,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1820,11 +1826,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -1836,28 +1842,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -1869,31 +1875,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1902,14 +1908,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1919,11 +1925,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1935,20 +1941,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1975,24 +1981,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2001,14 +2007,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2018,14 +2024,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>78</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2041,7 +2047,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2051,14 +2057,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2067,14 +2073,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2084,14 +2090,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2100,31 +2106,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2140,24 +2146,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2166,14 +2172,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2190,7 +2196,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2206,7 +2212,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2216,14 +2222,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2232,14 +2238,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2272,13 +2278,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2305,13 +2311,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2322,7 +2328,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2338,7 +2344,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2371,7 +2377,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2404,7 +2410,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2421,7 +2427,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2437,13 +2443,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2454,7 +2460,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2476,7 +2482,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2503,7 +2509,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2536,7 +2542,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2546,11 +2552,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2562,14 +2568,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2579,14 +2585,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2595,7 +2601,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2612,14 +2618,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2628,14 +2634,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2645,11 +2651,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2661,14 +2667,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2678,14 +2684,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2694,31 +2700,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2734,13 +2740,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2817,7 +2823,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2833,7 +2839,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2843,14 +2849,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2859,14 +2865,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2876,14 +2882,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2892,14 +2898,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,14 +2915,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2946,7 +2952,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2958,31 +2964,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2991,28 +2997,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3024,28 +3030,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3057,14 +3063,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,14 +3080,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3097,7 +3103,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3107,14 +3113,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,11 +3146,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3156,7 +3162,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3173,11 +3179,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3189,14 +3195,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,14 +3212,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3229,7 +3235,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3243,7 +3249,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3255,14 +3261,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,14 +3278,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3288,14 +3294,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,14 +3311,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3321,14 +3327,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,14 +3377,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>194</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,14 +3410,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>196</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3427,7 +3433,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3443,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3459,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,11 +3476,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3486,14 +3492,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,11 +3509,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3526,7 +3532,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3540,10 +3546,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,14 +3575,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3592,7 +3598,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,14 +3608,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3618,14 +3624,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,14 +3641,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3651,14 +3657,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,14 +3674,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,31 +3690,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3717,31 +3723,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3757,24 +3763,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3796,18 +3802,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3816,28 +3822,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3849,7 +3855,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3862,15 +3868,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3882,7 +3888,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3895,18 +3901,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3915,7 +3921,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3928,18 +3934,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>171</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3961,18 +3967,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3981,31 +3987,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4014,28 +4020,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4047,31 +4053,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4080,28 +4086,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4113,31 +4119,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4146,31 +4152,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4192,18 +4198,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4219,59 +4225,92 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4636.3199999999997</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>254</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>38</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>63</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>255</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4659.3199999999997</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
         <v>256</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>257</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>258</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4710,10 +4749,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -146,6 +158,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -245,9 +269,6 @@
     <t>79.6800</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>DOLO-D ORAL SUSP. 115 ML</t>
   </si>
   <si>
@@ -263,6 +284,15 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -347,9 +377,6 @@
     <t>FUSI 2% OINT. 15 GM</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>38.0000</t>
   </si>
   <si>
@@ -530,9 +557,6 @@
     <t>PURGATON 20MG 30 TAB.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -662,6 +686,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>ZYMAGALLIN 30 TAB</t>
   </si>
   <si>
@@ -686,81 +719,93 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>46:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
     <t>28:0</t>
   </si>
   <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>46:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -779,7 +824,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 8:50 PM</t>
+    <t>Sunday, 14 September, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1496,14 +1541,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1519,7 +1564,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1529,14 +1574,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1545,14 +1590,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1585,7 +1630,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1595,14 +1640,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1611,14 +1656,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1628,14 +1673,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1644,14 +1689,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1668,7 +1713,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1701,7 +1746,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1717,7 +1762,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1727,14 +1772,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1743,14 +1788,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1760,14 +1805,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1776,14 +1821,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1793,14 +1838,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1809,14 +1854,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1826,14 +1871,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1842,14 +1887,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1866,7 +1911,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1882,24 +1927,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1908,14 +1953,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1925,14 +1970,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1941,31 +1986,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1981,21 +2026,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2007,14 +2052,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2024,14 +2069,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2040,31 +2085,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2073,14 +2118,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2090,14 +2135,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2106,14 +2151,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2123,14 +2168,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2139,31 +2184,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2172,14 +2217,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2189,14 +2234,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2205,14 +2250,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2222,14 +2267,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2245,21 +2290,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2271,14 +2316,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2295,7 +2340,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2311,13 +2356,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2328,7 +2373,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2344,7 +2389,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2354,14 +2399,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2370,14 +2415,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2387,14 +2432,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2403,31 +2448,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2436,14 +2481,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2453,14 +2498,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2469,31 +2514,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2502,14 +2547,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2519,14 +2564,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2542,7 +2587,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2559,7 +2604,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2575,24 +2620,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2601,14 +2646,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2618,14 +2663,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2641,7 +2686,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2651,14 +2696,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2667,14 +2712,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2684,14 +2729,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2700,14 +2745,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2717,14 +2762,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2733,31 +2778,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2766,14 +2811,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,14 +2828,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2799,14 +2844,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2816,14 +2861,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2839,13 +2884,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2856,7 +2901,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2872,7 +2917,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2882,14 +2927,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2898,14 +2943,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2915,14 +2960,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2938,7 +2983,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,14 +2993,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2971,7 +3016,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2981,11 +3026,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2997,31 +3042,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3037,24 +3082,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3070,7 +3115,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3087,7 +3132,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3103,24 +3148,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3129,20 +3174,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3153,7 +3198,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3169,7 +3214,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3186,7 +3231,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3202,7 +3247,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3212,14 +3257,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3228,14 +3273,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3245,14 +3290,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3268,7 +3313,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3285,7 +3330,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3301,7 +3346,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3318,7 +3363,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3334,7 +3379,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3348,7 +3393,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3360,14 +3405,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,14 +3422,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3393,14 +3438,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3410,14 +3455,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>196</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3426,14 +3471,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3443,14 +3488,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3459,14 +3504,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3476,14 +3521,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3499,7 +3544,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3509,14 +3554,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3525,14 +3570,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3542,14 +3587,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,14 +3603,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,14 +3620,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3591,14 +3636,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3608,14 +3653,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3624,14 +3669,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,14 +3686,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3664,7 +3709,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3674,14 +3719,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3690,14 +3735,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3707,14 +3752,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3730,24 +3775,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3756,20 +3801,20 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3777,10 +3822,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3789,31 +3834,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3822,31 +3867,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3862,24 +3907,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,31 +3933,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3928,24 +3973,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3954,31 +3999,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>173</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3987,31 +4032,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4020,31 +4065,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4053,31 +4098,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4086,31 +4131,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4119,31 +4164,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4152,31 +4197,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4185,28 +4230,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4218,31 +4263,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4251,66 +4296,231 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4659.3199999999997</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>256</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>257</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>258</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>262</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>16</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>71</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>234</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>263</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>42</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>71</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>14</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>265</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>266</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>71</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>107</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>267</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>268</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>71</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>231</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>269</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>42</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>71</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>270</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4945.7600000000002</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>271</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>272</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>273</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4754,10 +4964,35 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -464,7 +464,7 @@
     <t>53.00</t>
   </si>
   <si>
-    <t>53.0000</t>
+    <t>106.0000</t>
   </si>
   <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
@@ -824,7 +824,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 8:53 PM</t>
+    <t>Sunday, 14 September, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2917,7 +2917,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2934,7 +2934,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -4490,7 +4490,7 @@
     </row>
     <row r="99" ht="25.5" customHeight="1">
       <c r="P99" s="13">
-        <v>4945.7600000000002</v>
+        <v>4998.7600000000002</v>
       </c>
       <c r="Q99" s="13"/>
     </row>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>11.8800</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
   </si>
   <si>
     <t>DICLAC 75 ID 30 TAB</t>
@@ -2092,13 +2101,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2109,7 +2118,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2125,24 +2134,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2158,7 +2167,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2168,14 +2177,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2191,7 +2200,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2201,14 +2210,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2217,14 +2226,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2234,14 +2243,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2257,7 +2266,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2267,14 +2276,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2283,31 +2292,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2323,24 +2332,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2349,14 +2358,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2373,7 +2382,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2389,7 +2398,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2399,14 +2408,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2415,14 +2424,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2455,13 +2464,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2488,13 +2497,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2505,7 +2514,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2521,7 +2530,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2554,7 +2563,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2564,11 +2573,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>29</v>
@@ -2580,14 +2589,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2597,14 +2606,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2620,13 +2629,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2637,7 +2646,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2659,7 +2668,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2686,7 +2695,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2719,7 +2728,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2729,11 +2738,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2745,14 +2754,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2762,14 +2771,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2778,7 +2787,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2795,14 +2804,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2832,7 +2841,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2844,14 +2853,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2861,14 +2870,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2877,31 +2886,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2923,7 +2932,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2934,7 +2943,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2950,7 +2959,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2967,7 +2976,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3000,7 +3009,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3016,7 +3025,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3026,14 +3035,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3042,14 +3051,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3059,14 +3068,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3075,14 +3084,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3092,14 +3101,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3115,7 +3124,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3125,11 +3134,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3148,13 +3157,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3165,7 +3174,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3181,7 +3190,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3214,13 +3223,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3247,7 +3256,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3257,14 +3266,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3290,14 +3299,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3313,7 +3322,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3379,7 +3388,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3393,10 +3402,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3405,14 +3414,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3422,11 +3431,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3445,7 +3454,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3462,7 +3471,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3478,7 +3487,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3495,7 +3504,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3511,7 +3520,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3521,14 +3530,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3554,14 +3563,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>204</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3577,7 +3586,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3587,14 +3596,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>46</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3643,7 +3652,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3653,11 +3662,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3686,11 +3695,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>29</v>
@@ -3702,14 +3711,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3719,14 +3728,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3742,7 +3751,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3752,14 +3761,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3768,14 +3777,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3785,14 +3794,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3808,7 +3817,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3818,14 +3827,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3834,14 +3843,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3858,7 +3867,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3874,7 +3883,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3884,14 +3893,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3900,31 +3909,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3933,14 +3942,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3954,10 +3963,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3966,14 +3975,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3983,14 +3992,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3999,14 +4008,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4016,14 +4025,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4039,7 +4048,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4049,7 +4058,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4122,7 +4131,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4148,14 +4157,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>204</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4164,7 +4173,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4181,14 +4190,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4197,7 +4206,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4214,14 +4223,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4230,14 +4239,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4247,14 +4256,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4280,11 +4289,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>119</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4313,14 +4322,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4329,14 +4338,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4350,7 +4359,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>29</v>
@@ -4362,14 +4371,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4379,14 +4388,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>204</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4395,14 +4404,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4412,14 +4421,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4428,14 +4437,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4445,14 +4454,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4461,14 +4470,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4478,49 +4487,82 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4998.7600000000002</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>271</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>272</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>42</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>71</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
         <v>273</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5080.7600000000002</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>274</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>275</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>276</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4989,10 +5031,15 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -272,10 +272,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>79.6800</t>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>127.6800</t>
   </si>
   <si>
     <t>DOLO-D ORAL SUSP. 115 ML</t>
@@ -680,7 +680,7 @@
     <t>102.00</t>
   </si>
   <si>
-    <t>16.3200</t>
+    <t>32.6400</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -770,6 +770,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -833,7 +839,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 8:54 PM</t>
+    <t>Sunday, 14 September, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2184,7 +2190,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -3817,7 +3823,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3834,7 +3840,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4194,10 +4200,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>207</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4206,7 +4212,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4227,7 +4233,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4239,7 +4245,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4260,7 +4266,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>29</v>
@@ -4272,14 +4278,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4289,7 +4295,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4305,14 +4311,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4326,7 +4332,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4338,14 +4344,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4371,7 +4377,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4404,7 +4410,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4425,7 +4431,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>207</v>
@@ -4437,14 +4443,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4470,14 +4476,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4503,7 +4509,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4520,7 +4526,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4532,13 +4538,13 @@
     </row>
     <row r="100" ht="24.75" customHeight="1">
       <c r="P100" s="13">
-        <v>5080.7600000000002</v>
+        <v>5147.0799999999999</v>
       </c>
       <c r="Q100" s="13"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
       <c t="s" r="A101" s="14">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -4546,13 +4552,13 @@
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
       <c t="s" r="G101" s="15">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
       <c r="J101" s="16"/>
       <c t="s" r="K101" s="17">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>DELAREX 5MG 30TAB</t>
   </si>
   <si>
@@ -635,6 +644,12 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -716,9 +731,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>برمنجنات بوتاسيوم</t>
   </si>
   <si>
@@ -836,10 +848,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>Sunday, 14 September, 2025 9:00 PM</t>
+    <t>Sunday, 14 September, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2008,21 +2017,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>29</v>
@@ -2034,31 +2043,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2067,14 +2076,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2084,11 +2093,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2100,14 +2109,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2124,7 +2133,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2140,13 +2149,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2157,7 +2166,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2173,24 +2182,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2206,7 +2215,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2216,14 +2225,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2239,7 +2248,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2249,14 +2258,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2265,14 +2274,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2282,14 +2291,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2305,7 +2314,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2315,14 +2324,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2331,31 +2340,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2371,24 +2380,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2397,14 +2406,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2421,7 +2430,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2437,7 +2446,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2447,14 +2456,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2463,14 +2472,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2503,13 +2512,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2536,13 +2545,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2553,7 +2562,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2569,7 +2578,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2602,7 +2611,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2612,11 +2621,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>29</v>
@@ -2628,14 +2637,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2645,14 +2654,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2668,13 +2677,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2685,7 +2694,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2707,7 +2716,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2734,7 +2743,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2767,7 +2776,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2777,11 +2786,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2793,14 +2802,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2810,14 +2819,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2826,7 +2835,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2843,14 +2852,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2859,14 +2868,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2876,11 +2885,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -2892,14 +2901,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2925,31 +2934,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2971,7 +2980,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2982,7 +2991,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2998,7 +3007,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3015,7 +3024,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3048,7 +3057,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3064,7 +3073,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3074,14 +3083,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3107,14 +3116,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3123,14 +3132,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3140,14 +3149,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3163,7 +3172,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3173,11 +3182,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3196,13 +3205,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3213,7 +3222,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3229,13 +3238,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3262,13 +3271,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3295,7 +3304,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3305,14 +3314,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3321,14 +3330,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3338,14 +3347,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3361,7 +3370,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3427,7 +3436,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3441,10 +3450,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3453,14 +3462,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3470,11 +3479,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3493,7 +3502,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3510,7 +3519,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3526,7 +3535,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3543,7 +3552,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3559,7 +3568,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3569,14 +3578,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3585,14 +3594,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3602,14 +3611,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>207</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3625,7 +3634,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3635,14 +3644,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>46</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3651,14 +3660,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3668,11 +3677,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3691,7 +3700,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3701,14 +3710,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3717,14 +3726,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3734,11 +3743,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>29</v>
@@ -3750,14 +3759,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3767,14 +3776,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3790,7 +3799,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3800,11 +3809,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>29</v>
@@ -3823,7 +3832,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3840,7 +3849,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3866,14 +3875,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3915,14 +3924,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3932,14 +3941,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3948,20 +3957,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3972,7 +3981,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3988,24 +3997,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4014,31 +4023,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4054,21 +4063,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>29</v>
@@ -4080,31 +4089,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4113,28 +4122,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>29</v>
@@ -4146,7 +4155,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4159,18 +4168,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4179,7 +4188,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4192,18 +4201,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>254</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4212,7 +4221,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4225,15 +4234,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4245,7 +4254,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4258,18 +4267,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>258</v>
-      </c>
-      <c t="s" r="Q91" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4285,24 +4294,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4311,31 +4320,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4344,31 +4353,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4377,31 +4386,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4410,31 +4419,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>207</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4443,31 +4452,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4483,24 +4492,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4516,59 +4525,125 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5147.0799999999999</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>276</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
         <v>277</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>74</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>239</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>278</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>42</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>74</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>71</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5218.0799999999999</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>279</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>280</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>281</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5042,10 +5117,20 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -101,6 +101,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>6:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>-7.6800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>BRONCHONEER 30 TAB</t>
   </si>
   <si>
@@ -116,9 +131,6 @@
     <t>0:2</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -134,6 +146,18 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>-8.1600</t>
+  </si>
+  <si>
     <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
   </si>
   <si>
@@ -716,7 +740,7 @@
     <t>56.00</t>
   </si>
   <si>
-    <t>168.0000</t>
+    <t>280.0000</t>
   </si>
   <si>
     <t>ZYMAGALLIN 30 TAB</t>
@@ -746,84 +770,87 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>46:0</t>
+    <t>47:0</t>
+  </si>
+  <si>
+    <t>36.6000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>14.4900</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>28:0</t>
   </si>
   <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -833,6 +860,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>محلول جلوكوز 5%</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -848,7 +884,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:11 PM</t>
+    <t>Sunday, 14 September, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1621,7 +1657,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1631,14 +1667,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1647,14 +1683,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1664,11 +1700,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1680,14 +1716,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1697,14 +1733,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1713,7 +1749,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1730,14 +1766,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1746,14 +1782,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1770,7 +1806,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1803,7 +1839,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1836,7 +1872,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1852,7 +1888,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1862,14 +1898,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1878,14 +1914,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1895,14 +1931,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1911,14 +1947,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1928,14 +1964,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1944,14 +1980,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1961,11 +1997,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>29</v>
@@ -1977,14 +2013,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2001,7 +2037,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2017,7 +2053,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2027,11 +2063,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>29</v>
@@ -2043,28 +2079,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>29</v>
@@ -2076,14 +2112,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2093,14 +2129,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2109,31 +2145,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2149,7 +2185,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2159,14 +2195,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2175,28 +2211,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2208,14 +2244,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2225,14 +2261,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2241,31 +2277,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2274,14 +2310,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2291,14 +2327,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2307,14 +2343,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2324,14 +2360,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2340,14 +2376,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2357,14 +2393,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2373,28 +2409,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2406,14 +2442,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2423,11 +2459,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -2439,31 +2475,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2472,14 +2508,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2489,14 +2525,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2505,14 +2541,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2522,14 +2558,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2538,28 +2574,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2571,14 +2607,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2588,14 +2624,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2604,31 +2640,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2637,14 +2673,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2654,11 +2690,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2670,14 +2706,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2687,14 +2723,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2703,28 +2739,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2736,14 +2772,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2753,14 +2789,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2769,28 +2805,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2802,14 +2838,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2819,11 +2855,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2835,14 +2871,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2852,14 +2888,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2868,14 +2904,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2885,11 +2921,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -2901,14 +2937,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2918,14 +2954,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2934,14 +2970,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2951,14 +2987,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2967,28 +3003,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>29</v>
@@ -3000,14 +3036,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3017,14 +3053,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3033,28 +3069,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>29</v>
@@ -3066,14 +3102,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3083,11 +3119,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3099,14 +3135,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3116,14 +3152,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3132,14 +3168,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3149,11 +3185,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3165,14 +3201,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3182,11 +3218,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3198,14 +3234,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3215,14 +3251,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3231,31 +3267,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3264,31 +3300,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3297,28 +3333,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
@@ -3330,31 +3366,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3363,14 +3399,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3380,11 +3416,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3396,14 +3432,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3413,14 +3449,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3429,14 +3465,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3446,11 +3482,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3462,14 +3498,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3479,14 +3515,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3495,14 +3531,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3512,14 +3548,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3528,14 +3564,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3545,14 +3581,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3561,14 +3597,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3578,11 +3614,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3594,14 +3630,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3611,11 +3647,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3627,14 +3663,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3644,14 +3680,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>210</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3660,14 +3696,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3677,11 +3713,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3693,14 +3729,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3710,14 +3746,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>46</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3726,14 +3762,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3743,11 +3779,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>29</v>
@@ -3759,14 +3795,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3776,14 +3812,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3792,14 +3828,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3809,11 +3845,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>29</v>
@@ -3825,14 +3861,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3842,14 +3878,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3858,14 +3894,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3875,11 +3911,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>29</v>
@@ -3891,14 +3927,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3908,14 +3944,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3924,14 +3960,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3941,14 +3977,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>105</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3957,14 +3993,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3974,14 +4010,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3990,14 +4026,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4007,14 +4043,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4023,31 +4059,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4056,31 +4092,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4089,31 +4125,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4122,28 +4158,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>29</v>
@@ -4155,31 +4191,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4188,31 +4224,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4221,31 +4257,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4254,31 +4290,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>258</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4287,28 +4323,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4320,31 +4356,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4353,31 +4389,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>50</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4386,31 +4422,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>50</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4419,31 +4455,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4452,31 +4488,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4485,31 +4521,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>210</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4518,31 +4554,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4551,31 +4587,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>50</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>29</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4584,66 +4620,165 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5218.0799999999999</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>286</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>287</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>82</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>121</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>288</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>289</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>82</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>247</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
         <v>279</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>280</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
-        <v>281</v>
-      </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c t="s" r="Q103" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>290</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>50</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>82</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>79</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5363.3299999999999</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>291</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>292</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>293</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5127,10 +5262,25 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -254,6 +254,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DELAREX 5MG 30TAB</t>
   </si>
   <si>
@@ -278,12 +290,6 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DICETEL 100MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -884,7 +890,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:13 PM</t>
+    <t>Sunday, 14 September, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2152,24 +2158,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2178,31 +2184,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2251,7 +2257,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2261,14 +2267,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2277,31 +2283,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2310,31 +2316,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2343,14 +2349,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2360,14 +2366,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2376,14 +2382,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2393,14 +2399,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2416,7 +2422,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2426,14 +2432,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2442,14 +2448,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2459,14 +2465,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2475,31 +2481,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2508,31 +2514,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2541,14 +2547,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2558,14 +2564,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2574,14 +2580,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2591,14 +2597,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2607,14 +2613,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2624,11 +2630,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2640,28 +2646,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2673,31 +2679,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2706,14 +2712,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2723,11 +2729,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
@@ -2739,14 +2745,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2756,7 +2762,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2779,7 +2785,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2789,14 +2795,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2805,31 +2811,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2838,7 +2844,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2851,15 +2857,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2871,14 +2877,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2888,11 +2894,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2904,14 +2910,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2921,11 +2927,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -2937,14 +2943,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2954,14 +2960,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2987,14 +2993,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3010,7 +3016,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3020,11 +3026,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>29</v>
@@ -3036,14 +3042,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3053,14 +3059,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3076,24 +3082,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3102,7 +3108,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3115,18 +3121,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3135,14 +3141,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3152,14 +3158,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3168,7 +3174,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3185,14 +3191,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3201,14 +3207,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3218,14 +3224,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3234,14 +3240,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3251,14 +3257,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3274,7 +3280,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3284,14 +3290,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3300,14 +3306,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3321,7 +3327,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3333,31 +3339,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3366,28 +3372,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>29</v>
@@ -3399,28 +3405,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3432,14 +3438,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3449,14 +3455,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3472,7 +3478,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3482,14 +3488,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3498,14 +3504,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3515,11 +3521,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3531,7 +3537,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3548,11 +3554,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>29</v>
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3581,14 +3587,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3604,7 +3610,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3618,7 +3624,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3630,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3647,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3663,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3680,14 +3686,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3696,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3713,14 +3719,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3729,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3746,14 +3752,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3762,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3779,14 +3785,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3802,7 +3808,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3812,14 +3818,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3835,7 +3841,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3845,14 +3851,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3861,14 +3867,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3878,11 +3884,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>29</v>
@@ -3894,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3911,11 +3917,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>29</v>
@@ -3934,7 +3940,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3948,10 +3954,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3960,14 +3966,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3977,14 +3983,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4000,7 +4006,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4010,14 +4016,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4026,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>122</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4043,14 +4049,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>113</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4059,14 +4065,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4076,14 +4082,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4092,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4109,14 +4115,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4125,31 +4131,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4158,20 +4164,20 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4179,10 +4185,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4198,24 +4204,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4237,18 +4243,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4257,31 +4263,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4290,7 +4296,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4303,15 +4309,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>29</v>
@@ -4323,7 +4329,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4336,18 +4342,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4356,7 +4362,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4369,18 +4375,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>266</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4389,7 +4395,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4402,18 +4408,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q94" s="12">
         <v>268</v>
-      </c>
-      <c t="s" r="Q94" s="12">
-        <v>88</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4435,18 +4441,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4462,24 +4468,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4488,28 +4494,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4521,31 +4527,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4554,20 +4560,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4575,7 +4581,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>29</v>
@@ -4587,31 +4593,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4627,24 +4633,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>29</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4653,31 +4659,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4699,18 +4705,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4726,59 +4732,92 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>50</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>292</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>50</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>86</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>79</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>80</v>
       </c>
-      <c t="s" r="Q104" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5363.3299999999999</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>291</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>292</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c t="s" r="Q105" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5375.21</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
         <v>293</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>294</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>295</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5277,10 +5316,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -812,10 +812,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="106" ht="25.5" customHeight="1">
       <c r="P106" s="13">
-        <v>5375.21</v>
+        <v>5377.21</v>
       </c>
       <c r="Q106" s="13"/>
     </row>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -620,6 +620,15 @@
     <t>94.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -698,6 +707,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>VITACID C 1GM 12 EFF. TAB.</t>
   </si>
   <si>
@@ -869,12 +881,6 @@
     <t>محلول جلوكوز 5%</t>
   </si>
   <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -890,7 +896,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:15 PM</t>
+    <t>Sunday, 14 September, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3577,7 +3583,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3610,7 +3616,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3624,10 +3630,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,14 +3642,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,11 +3659,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3676,7 +3682,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3693,7 +3699,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3709,7 +3715,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3726,7 +3732,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3742,7 +3748,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,14 +3758,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3768,14 +3774,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3785,14 +3791,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>220</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3808,7 +3814,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,14 +3824,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3834,14 +3840,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,14 +3857,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3867,14 +3873,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3890,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3907,7 +3913,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,11 +3923,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>29</v>
@@ -3933,14 +3939,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,14 +3956,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3966,14 +3972,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,14 +3989,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3999,14 +4005,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,14 +4022,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4032,14 +4038,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,14 +4055,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4065,14 +4071,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4089,7 +4095,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>115</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4105,7 +4111,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,11 +4121,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>115</v>
@@ -4131,14 +4137,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4148,14 +4154,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4164,31 +4170,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4197,14 +4203,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,14 +4220,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,14 +4236,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4247,14 +4253,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4263,14 +4269,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4280,14 +4286,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4296,14 +4302,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4313,14 +4319,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4329,7 +4335,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4346,11 +4352,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>29</v>
@@ -4362,7 +4368,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4379,14 +4385,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4395,7 +4401,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4412,14 +4418,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>268</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4428,7 +4434,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4445,14 +4451,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>92</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4461,7 +4467,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4478,14 +4484,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4494,14 +4500,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>50</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4511,14 +4517,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4527,14 +4533,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4544,11 +4550,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4560,14 +4566,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4577,14 +4583,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,14 +4599,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4610,11 +4616,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>29</v>
@@ -4626,14 +4632,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4643,14 +4649,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>220</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4659,14 +4665,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>274</v>
+        <v>50</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4676,14 +4682,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>29</v>
+        <v>223</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4692,14 +4698,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4709,14 +4715,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4742,14 +4748,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4765,7 +4771,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>50</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4775,49 +4781,82 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>294</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>50</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>86</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>79</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>80</v>
       </c>
-      <c t="s" r="Q105" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5377.21</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>293</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>294</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c t="s" r="Q106" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5430.21</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
         <v>295</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>296</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>297</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5321,10 +5360,15 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -896,7 +896,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:16 PM</t>
+    <t>Sunday, 14 September, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -311,10 +311,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>127.6800</t>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>143.5200</t>
+  </si>
+  <si>
+    <t>2:3</t>
   </si>
   <si>
     <t>DOLO-D ORAL SUSP. 115 ML</t>
@@ -554,9 +557,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:3</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -773,6 +773,18 @@
     <t>20.00</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>35:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>برمنجنات بوتاسيوم</t>
   </si>
   <si>
@@ -827,9 +839,6 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -875,9 +884,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>محلول جلوكوز 5%</t>
   </si>
   <si>
@@ -896,7 +902,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:20 PM</t>
+    <t>Sunday, 14 September, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2379,7 +2385,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2388,7 +2394,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2405,11 +2411,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -2421,7 +2427,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2442,7 +2448,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>50</v>
@@ -2454,14 +2460,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2471,7 +2477,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2487,7 +2493,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2520,7 +2526,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2537,11 +2543,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2553,14 +2559,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2570,11 +2576,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>29</v>
@@ -2586,7 +2592,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2603,11 +2609,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>39</v>
@@ -2619,14 +2625,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2636,11 +2642,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2652,7 +2658,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2669,11 +2675,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2685,7 +2691,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2702,11 +2708,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2718,7 +2724,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2735,11 +2741,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
@@ -2751,7 +2757,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2768,11 +2774,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2784,7 +2790,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2801,11 +2807,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2817,7 +2823,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2834,11 +2840,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2850,7 +2856,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2867,11 +2873,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2883,7 +2889,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2900,11 +2906,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2916,7 +2922,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2933,11 +2939,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -2949,14 +2955,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2966,11 +2972,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
@@ -2982,7 +2988,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2999,11 +3005,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>54</v>
@@ -3015,7 +3021,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3036,7 +3042,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>29</v>
@@ -3048,7 +3054,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3069,7 +3075,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>29</v>
@@ -3081,7 +3087,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3102,7 +3108,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>39</v>
@@ -3114,7 +3120,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3131,11 +3137,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>29</v>
@@ -3147,7 +3153,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3164,11 +3170,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3180,7 +3186,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3197,11 +3203,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>29</v>
@@ -3213,7 +3219,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3230,11 +3236,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3246,14 +3252,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3263,11 +3269,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3279,7 +3285,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3296,11 +3302,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3312,14 +3318,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3791,11 +3797,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>29</v>
@@ -3824,7 +3830,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3956,7 +3962,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4078,7 +4084,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4128,7 +4134,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4144,7 +4150,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4161,7 +4167,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4243,7 +4249,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4253,14 +4259,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4269,14 +4275,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4286,14 +4292,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4302,14 +4308,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4319,14 +4325,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4335,14 +4341,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>50</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4352,14 +4358,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4368,7 +4374,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4385,11 +4391,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>29</v>
@@ -4401,7 +4407,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4418,14 +4424,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4434,7 +4440,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4451,14 +4457,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>272</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4467,7 +4473,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4484,14 +4490,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4500,7 +4506,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4517,14 +4523,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4533,14 +4539,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>50</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4550,14 +4556,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4583,11 +4589,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4616,14 +4622,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>253</v>
+        <v>136</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4639,7 +4645,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4649,11 +4655,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>29</v>
@@ -4665,14 +4671,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4682,14 +4688,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>223</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4698,14 +4704,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>278</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4715,14 +4721,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>29</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4731,14 +4737,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4748,14 +4754,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4781,14 +4787,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4804,7 +4810,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>50</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4814,49 +4820,82 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>296</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>50</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>86</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>79</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>80</v>
       </c>
-      <c t="s" r="Q106" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5430.21</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>295</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>296</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c t="s" r="Q107" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5536.0500000000002</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
         <v>297</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>298</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>299</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5365,10 +5404,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -389,6 +389,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -518,6 +527,15 @@
     <t>106.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>64.7400</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -611,6 +629,9 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>RX MASSAGE SPRAY</t>
+  </si>
+  <si>
     <t>SELOKENZOC 50 MG 28 PROLONGED REL. TABS</t>
   </si>
   <si>
@@ -632,9 +653,6 @@
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -836,9 +854,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -902,7 +917,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:24 PM</t>
+    <t>Sunday, 14 September, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2671,7 +2686,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2698,13 +2713,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2731,13 +2746,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2748,7 +2763,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2764,7 +2779,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2797,7 +2812,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2807,11 +2822,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2823,14 +2838,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2840,14 +2855,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2863,13 +2878,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2880,7 +2895,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2902,7 +2917,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2929,7 +2944,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2962,7 +2977,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2972,11 +2987,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3005,14 +3020,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3021,7 +3036,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3038,14 +3053,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3054,14 +3069,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3075,7 +3090,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>29</v>
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3104,14 +3119,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3120,31 +3135,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3166,7 +3181,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3177,7 +3192,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3193,7 +3208,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3210,7 +3225,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3226,7 +3241,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3243,7 +3258,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3259,7 +3274,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3269,14 +3284,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3285,14 +3300,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3302,7 +3317,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3325,7 +3340,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3335,11 +3350,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3351,14 +3366,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3368,14 +3383,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3384,31 +3399,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3424,13 +3439,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3441,7 +3456,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3457,13 +3472,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3490,24 +3505,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3516,14 +3531,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3533,11 +3548,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3549,14 +3564,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3566,14 +3581,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3589,7 +3604,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3622,21 +3637,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>29</v>
@@ -3648,14 +3663,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3665,14 +3680,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3681,14 +3696,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3698,14 +3713,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3714,7 +3729,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3731,11 +3746,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3747,14 +3762,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3764,11 +3779,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3780,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3797,14 +3812,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3813,14 +3828,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3830,14 +3845,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>223</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3846,14 +3861,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3863,14 +3878,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3896,14 +3911,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3912,7 +3927,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3929,14 +3944,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3945,14 +3960,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3962,14 +3977,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3978,14 +3993,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3995,14 +4010,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4011,14 +4026,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4028,14 +4043,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4044,14 +4059,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4061,14 +4076,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4077,14 +4092,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4094,14 +4109,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4110,14 +4125,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4127,14 +4142,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4143,14 +4158,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,14 +4175,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>116</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4176,14 +4191,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4193,14 +4208,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4209,31 +4224,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4242,31 +4257,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4275,31 +4290,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4308,14 +4323,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4325,14 +4340,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4341,14 +4356,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4358,14 +4373,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4374,14 +4389,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4391,11 +4406,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>29</v>
@@ -4407,14 +4422,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>50</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4424,14 +4439,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4440,14 +4455,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>50</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4457,14 +4472,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4473,7 +4488,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4490,14 +4505,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4506,7 +4521,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4523,14 +4538,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4539,7 +4554,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4556,14 +4571,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4579,7 +4594,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4589,14 +4604,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>246</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4605,14 +4620,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4622,14 +4637,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4638,14 +4653,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>287</v>
+        <v>50</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4655,11 +4670,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>29</v>
@@ -4671,14 +4686,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4688,14 +4703,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4704,14 +4719,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>50</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4721,14 +4736,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4744,7 +4759,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4754,11 +4769,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>29</v>
@@ -4770,14 +4785,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4787,14 +4802,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4803,14 +4818,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>50</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4820,14 +4835,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>29</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4843,7 +4858,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4853,49 +4868,148 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>297</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>298</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>86</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>124</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>299</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>300</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>86</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>259</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>301</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>50</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>86</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>79</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>80</v>
       </c>
-      <c t="s" r="Q107" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5536.0500000000002</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>297</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>298</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>299</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c t="s" r="Q110" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5770.1400000000003</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>302</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>303</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>304</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5409,10 +5523,25 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -89,18 +89,27 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -383,9 +392,6 @@
     <t>3:5</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>3.8400</t>
   </si>
   <si>
@@ -506,9 +512,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>MEBO SEA 25MG CREAM</t>
   </si>
   <si>
@@ -533,7 +536,10 @@
     <t>39.00</t>
   </si>
   <si>
-    <t>64.7400</t>
+    <t>77.6100</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
@@ -557,9 +563,6 @@
     <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>128.00</t>
   </si>
   <si>
@@ -854,6 +857,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -917,7 +926,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:28 PM</t>
+    <t>Sunday, 14 September, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1667,14 +1676,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1683,14 +1692,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1700,14 +1709,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1733,14 +1742,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1756,7 +1765,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1766,7 +1775,7 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
@@ -1789,7 +1798,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1799,14 +1808,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1815,14 +1824,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1832,14 +1841,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1855,7 +1864,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1865,14 +1874,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1881,14 +1890,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1898,14 +1907,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1964,11 +1973,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1980,14 +1989,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2004,7 +2013,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2020,7 +2029,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2037,7 +2046,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2053,7 +2062,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2070,7 +2079,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2086,7 +2095,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2096,14 +2105,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2169,7 +2178,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2185,7 +2194,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2195,14 +2204,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2211,31 +2220,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2244,31 +2253,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2294,11 +2303,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2350,13 +2359,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2367,7 +2376,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2383,24 +2392,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2409,14 +2418,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2426,14 +2435,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2449,7 +2458,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2475,14 +2484,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2515,7 +2524,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2541,31 +2550,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2581,24 +2590,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2631,7 +2640,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2647,7 +2656,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2657,14 +2666,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2673,28 +2682,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2706,7 +2715,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2719,15 +2728,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2739,28 +2748,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2772,31 +2781,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2838,14 +2847,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2855,14 +2864,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2878,7 +2887,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2888,14 +2897,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2904,31 +2913,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2937,31 +2946,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3003,14 +3012,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3020,14 +3029,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3076,7 +3085,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3086,14 +3095,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3109,7 +3118,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3119,14 +3128,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3135,14 +3144,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3152,14 +3161,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3175,24 +3184,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3201,31 +3210,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3234,14 +3243,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3251,14 +3260,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3284,14 +3293,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3300,14 +3309,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3317,14 +3326,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3333,14 +3342,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3350,14 +3359,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3383,14 +3392,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3416,14 +3425,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3449,11 +3458,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3465,31 +3474,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3498,31 +3507,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3531,31 +3540,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3581,14 +3590,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3630,31 +3639,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3670,24 +3679,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3696,14 +3705,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3713,14 +3722,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3746,14 +3755,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3762,14 +3771,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3779,14 +3788,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3795,14 +3804,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3812,11 +3821,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3828,14 +3837,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3845,14 +3854,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3861,14 +3870,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3878,14 +3887,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3894,14 +3903,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3911,14 +3920,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3934,7 +3943,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,14 +3953,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>229</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3960,14 +3969,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,14 +3986,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3993,14 +4002,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4010,14 +4019,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4026,14 +4035,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4043,14 +4052,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4059,14 +4068,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4076,14 +4085,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4092,14 +4101,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4109,14 +4118,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4125,14 +4134,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4142,14 +4151,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4158,14 +4167,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,14 +4184,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4191,14 +4200,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4208,14 +4217,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4241,14 +4250,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>116</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4257,14 +4266,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4274,14 +4283,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4290,14 +4299,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4307,14 +4316,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4330,24 +4339,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4356,31 +4365,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4389,31 +4398,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4422,31 +4431,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4455,31 +4464,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4488,31 +4497,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4521,31 +4530,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4554,31 +4563,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4587,31 +4596,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4627,24 +4636,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>92</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4653,31 +4662,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,31 +4695,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>53</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4732,15 +4741,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>139</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4765,18 +4774,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4792,24 +4801,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4818,31 +4827,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>229</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4851,31 +4860,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>286</v>
+        <v>53</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>29</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4884,31 +4893,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4917,31 +4926,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4950,66 +4959,99 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>50</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5770.1400000000003</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>302</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>303</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>304</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>53</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>89</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>82</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>5809.0100000000002</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>305</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>306</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>307</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5538,10 +5580,15 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -320,13 +320,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>143.5200</t>
-  </si>
-  <si>
-    <t>2:3</t>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>159.3600</t>
+  </si>
+  <si>
+    <t>3:1</t>
   </si>
   <si>
     <t>DOLO-D ORAL SUSP. 115 ML</t>
@@ -347,9 +347,6 @@
     <t>DOLPHIN 25 MG 10 SUPP.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
@@ -482,6 +479,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -512,6 +518,15 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>MEBO SEA 25MG CREAM</t>
   </si>
   <si>
@@ -581,6 +596,9 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -926,7 +944,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:31 PM</t>
+    <t>Sunday, 14 September, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2524,7 +2542,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2534,7 +2552,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2550,7 +2568,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2583,7 +2601,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2600,11 +2618,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2616,14 +2634,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2633,11 +2651,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2649,7 +2667,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2666,11 +2684,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>42</v>
@@ -2682,14 +2700,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2703,7 +2721,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2715,7 +2733,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2732,11 +2750,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2748,7 +2766,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2765,11 +2783,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2781,7 +2799,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2798,11 +2816,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2814,7 +2832,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2831,11 +2849,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2847,7 +2865,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2864,11 +2882,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -2880,7 +2898,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2897,11 +2915,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -2913,7 +2931,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2930,11 +2948,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2946,7 +2964,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2963,11 +2981,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>30</v>
@@ -2979,7 +2997,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2996,11 +3014,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -3012,7 +3030,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3029,11 +3047,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>30</v>
@@ -3045,14 +3063,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3062,14 +3080,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3078,14 +3096,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3095,14 +3113,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3128,14 +3146,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3151,7 +3169,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3165,7 +3183,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
@@ -3177,14 +3195,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3194,14 +3212,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3210,31 +3228,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3243,14 +3261,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3260,14 +3278,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3276,31 +3294,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3309,14 +3327,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3326,14 +3344,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3342,14 +3360,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3359,14 +3377,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3375,14 +3393,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3392,14 +3410,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3408,14 +3426,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3425,7 +3443,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3448,7 +3466,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3462,7 +3480,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3474,14 +3492,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3491,14 +3509,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3514,13 +3532,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3531,7 +3549,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3547,13 +3565,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3564,7 +3582,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3580,13 +3598,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3613,24 +3631,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3639,14 +3657,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3656,11 +3674,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3672,31 +3690,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3705,14 +3723,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3722,11 +3740,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>30</v>
@@ -3738,28 +3756,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -3788,11 +3806,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3804,14 +3822,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3821,14 +3839,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3837,14 +3855,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3854,14 +3872,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3870,14 +3888,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3887,14 +3905,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3910,7 +3928,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3943,7 +3961,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3953,11 +3971,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -3969,14 +3987,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3986,14 +4004,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>230</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4002,14 +4020,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4019,11 +4037,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>30</v>
@@ -4035,14 +4053,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4052,14 +4070,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>57</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4068,14 +4086,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4085,11 +4103,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>30</v>
@@ -4101,14 +4119,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4118,14 +4136,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4134,14 +4152,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4151,11 +4169,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>30</v>
@@ -4167,14 +4185,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4184,14 +4202,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4200,14 +4218,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4217,11 +4235,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>30</v>
@@ -4233,14 +4251,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4250,14 +4268,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4266,14 +4284,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4283,14 +4301,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>119</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4299,14 +4317,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4316,14 +4334,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>119</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4332,14 +4350,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4349,14 +4367,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>35</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4365,31 +4383,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>118</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>83</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4398,31 +4416,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>35</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4431,14 +4449,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4452,10 +4470,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4481,11 +4499,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4497,14 +4515,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4514,14 +4532,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4530,14 +4548,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4547,14 +4565,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4570,7 +4588,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>53</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4580,14 +4598,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4620,7 +4638,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4646,14 +4664,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>283</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4679,14 +4697,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4695,7 +4713,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4712,14 +4730,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4728,14 +4746,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>53</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4745,14 +4763,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4761,14 +4779,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>53</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4778,14 +4796,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4811,14 +4829,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4834,7 +4852,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4844,14 +4862,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4860,14 +4878,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>53</v>
+        <v>301</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4877,14 +4895,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>230</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4893,14 +4911,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4910,11 +4928,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>30</v>
@@ -4926,14 +4944,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>53</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4943,14 +4961,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4959,14 +4977,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4976,11 +4994,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>30</v>
@@ -4992,14 +5010,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>53</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5009,49 +5027,115 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>308</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>309</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>89</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>266</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>310</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>53</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>89</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>82</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>83</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>5809.0100000000002</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>305</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>306</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>307</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q113" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5956.3500000000004</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>311</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>312</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>313</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5585,10 +5669,20 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -410,6 +410,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>FONDACLAV 1GM 12 F.C. TABS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>FORADIL12 MG 60 CAPS</t>
   </si>
   <si>
@@ -671,6 +680,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>SOLUPRED ORO 20MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -944,7 +962,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:36 PM</t>
+    <t>Sunday, 14 September, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2806,13 +2824,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2839,13 +2857,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2856,7 +2874,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2872,7 +2890,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2905,7 +2923,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2915,11 +2933,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -2931,14 +2949,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2948,14 +2966,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2971,13 +2989,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2988,7 +3006,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3010,7 +3028,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3037,7 +3055,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3087,7 +3105,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3103,7 +3121,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3113,14 +3131,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3129,14 +3147,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3146,14 +3164,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3162,7 +3180,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3179,14 +3197,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3195,14 +3213,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3216,7 +3234,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -3228,14 +3246,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3245,14 +3263,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3261,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3278,14 +3296,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3301,13 +3319,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3318,7 +3336,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3340,7 +3358,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3351,7 +3369,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3367,7 +3385,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3384,7 +3402,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3393,14 +3411,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3410,14 +3428,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>184</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3450,7 +3468,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3466,7 +3484,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3483,7 +3501,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3499,7 +3517,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3509,14 +3527,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3525,14 +3543,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3542,14 +3560,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3565,7 +3583,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3582,7 +3600,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3598,13 +3616,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3615,7 +3633,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3631,7 +3649,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3664,13 +3682,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3697,7 +3715,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3707,14 +3725,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3723,14 +3741,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3740,14 +3758,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3763,21 +3781,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -3789,28 +3807,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3829,7 +3847,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3862,7 +3880,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3872,11 +3890,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>30</v>
@@ -3888,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3905,11 +3923,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3921,14 +3939,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3938,14 +3956,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3954,14 +3972,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3971,14 +3989,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3994,7 +4012,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4027,7 +4045,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4037,11 +4055,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>30</v>
@@ -4053,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4070,14 +4088,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>236</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4086,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4103,11 +4121,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>30</v>
@@ -4119,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4136,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>57</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4152,14 +4170,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,11 +4187,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>30</v>
@@ -4185,14 +4203,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4202,14 +4220,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4218,14 +4236,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4235,11 +4253,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>30</v>
@@ -4251,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4268,14 +4286,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4284,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4301,11 +4319,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>30</v>
@@ -4317,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4334,14 +4352,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4350,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,14 +4385,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>118</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4383,14 +4401,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,14 +4418,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4416,14 +4434,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4433,14 +4451,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4449,31 +4467,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4482,31 +4500,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>35</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4515,14 +4533,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4536,10 +4554,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4565,11 +4583,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4581,14 +4599,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4598,14 +4616,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4614,14 +4632,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>53</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4631,14 +4649,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4654,7 +4672,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4664,14 +4682,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4704,7 +4722,7 @@
         <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4730,14 +4748,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>289</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4763,14 +4781,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4779,7 +4797,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4796,14 +4814,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>30</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4812,14 +4830,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>53</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4829,14 +4847,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4845,14 +4863,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>53</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4862,14 +4880,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>140</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4895,14 +4913,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4918,7 +4936,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4928,14 +4946,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>272</v>
+        <v>143</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4944,14 +4962,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>53</v>
+        <v>307</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4961,14 +4979,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>236</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4977,14 +4995,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4994,11 +5012,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>30</v>
@@ -5010,14 +5028,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>53</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5027,14 +5045,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5043,14 +5061,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5060,11 +5078,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>30</v>
@@ -5076,14 +5094,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>53</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5093,49 +5111,115 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>314</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>315</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>89</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>272</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>316</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>53</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>89</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>82</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>83</v>
       </c>
-      <c t="s" r="Q113" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5956.3500000000004</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>311</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>312</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
-        <v>313</v>
-      </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c t="s" r="Q115" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6070.25</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>317</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>318</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>319</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5679,10 +5763,20 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:41 PM</t>
+    <t>Sunday, 14 September, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -374,6 +374,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -392,6 +401,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
@@ -566,6 +584,15 @@
     <t>1:3</t>
   </si>
   <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -713,9 +740,6 @@
     <t>TRESS HAIR OIL 120 ML</t>
   </si>
   <si>
-    <t>160.00</t>
-  </si>
-  <si>
     <t>160.0000</t>
   </si>
   <si>
@@ -839,9 +863,6 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>برمنجنات بوتاسيوم</t>
   </si>
   <si>
@@ -851,7 +872,7 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>27:0</t>
+    <t>28:0</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -932,9 +953,6 @@
     <t>قطن 100 جم</t>
   </si>
   <si>
-    <t>28:0</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -962,7 +980,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:42 PM</t>
+    <t>Sunday, 14 September, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2560,7 +2578,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2574,10 +2592,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2692,7 +2710,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2709,7 +2727,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2725,7 +2743,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2735,14 +2753,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2758,17 +2776,17 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2791,7 +2809,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2824,13 +2842,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2857,13 +2875,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2890,7 +2908,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2907,7 +2925,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2923,13 +2941,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2940,7 +2958,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2956,7 +2974,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2966,11 +2984,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -2982,14 +3000,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2999,14 +3017,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3015,24 +3033,24 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3055,7 +3073,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3072,7 +3090,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3088,13 +3106,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3121,7 +3139,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3138,7 +3156,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3154,7 +3172,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3164,11 +3182,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -3180,14 +3198,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3197,14 +3215,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3220,7 +3238,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3230,11 +3248,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -3246,14 +3264,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,14 +3281,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3279,14 +3297,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3296,14 +3314,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3312,14 +3330,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3329,14 +3347,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3345,31 +3363,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3385,7 +3403,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3402,7 +3420,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3418,13 +3436,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3435,7 +3453,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3444,14 +3462,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3461,14 +3479,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3477,14 +3495,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3494,14 +3512,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>190</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3517,7 +3535,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3534,7 +3552,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3550,7 +3568,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3560,14 +3578,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3576,14 +3594,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3593,14 +3611,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3609,14 +3627,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3626,11 +3644,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3642,31 +3660,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3682,13 +3700,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3699,7 +3717,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3715,7 +3733,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3732,7 +3750,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3748,24 +3766,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3774,28 +3792,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -3807,28 +3825,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3840,14 +3858,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3857,14 +3875,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3873,14 +3891,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3890,11 +3908,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>30</v>
@@ -3906,7 +3924,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3919,18 +3937,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3956,11 +3974,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -3972,14 +3990,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,14 +4007,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4005,14 +4023,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,11 +4040,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4038,7 +4056,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4055,11 +4073,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>30</v>
@@ -4071,14 +4089,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,11 +4106,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4111,7 +4129,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,14 +4139,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4137,14 +4155,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,14 +4172,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>242</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4170,14 +4188,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,14 +4205,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4203,7 +4221,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4220,14 +4238,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4236,7 +4254,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4253,14 +4271,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4269,14 +4287,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,14 +4304,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>119</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4302,14 +4320,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4337,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4353,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,14 +4370,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4368,14 +4386,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4403,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>119</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4401,14 +4419,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,14 +4436,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4441,7 +4459,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,14 +4469,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4467,14 +4485,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>118</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4484,14 +4502,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>118</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,14 +4518,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,14 +4535,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4546,7 +4564,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4554,10 +4572,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4566,20 +4584,20 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>118</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4590,7 +4608,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4606,24 +4624,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>35</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4632,14 +4650,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4649,14 +4667,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4682,14 +4700,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4705,7 +4723,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4719,7 +4737,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>30</v>
@@ -4731,14 +4749,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4748,14 +4766,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,14 +4782,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4781,14 +4799,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4797,7 +4815,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4814,14 +4832,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>295</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4830,7 +4848,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4847,14 +4865,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,7 +4881,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4880,14 +4898,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4903,7 +4921,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>301</v>
+        <v>53</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4913,14 +4931,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4936,7 +4954,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>304</v>
+        <v>53</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4946,14 +4964,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4962,14 +4980,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>307</v>
+        <v>53</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,11 +4997,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>30</v>
@@ -4995,14 +5013,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5012,14 +5030,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5035,7 +5053,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>53</v>
+        <v>311</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,14 +5063,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>242</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5061,14 +5079,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5078,11 +5096,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>30</v>
@@ -5094,14 +5112,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,14 +5129,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5127,14 +5145,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>315</v>
+        <v>53</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5144,14 +5162,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>272</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>30</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5160,14 +5178,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>53</v>
+        <v>308</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5177,49 +5195,148 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>318</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>319</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>89</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>28</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>320</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>321</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>89</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>280</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>322</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>53</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>89</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>82</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>83</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6070.25</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>317</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>318</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>319</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c t="s" r="Q118" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6350.25</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>323</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>324</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>325</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5773,10 +5890,25 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -284,13 +284,10 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
-    <t>17.0000</t>
+    <t>102.0000</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -410,6 +407,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>52.4700</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
@@ -728,6 +734,15 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
     <t>TORSAMOLEX 20MG 20 TABS</t>
   </si>
   <si>
@@ -845,6 +860,15 @@
     <t>ZYMAGALLIN 30 TAB</t>
   </si>
   <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
     <t>ايزي سويت 3 قطع</t>
   </si>
   <si>
@@ -914,10 +938,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -980,7 +1001,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:45 PM</t>
+    <t>Sunday, 14 September, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2347,7 +2368,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2357,14 +2378,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2373,14 +2394,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2406,7 +2427,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2423,11 +2444,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2439,7 +2460,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2456,11 +2477,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2472,14 +2493,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2493,10 +2514,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>104</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>105</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2505,7 +2526,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2522,11 +2543,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>30</v>
@@ -2538,14 +2559,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2559,7 +2580,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>53</v>
@@ -2571,7 +2592,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2588,11 +2609,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>53</v>
@@ -2604,7 +2625,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2637,7 +2658,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2654,11 +2675,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2687,11 +2708,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2703,7 +2724,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2720,11 +2741,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2736,7 +2757,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2753,11 +2774,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>42</v>
@@ -2769,14 +2790,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2790,7 +2811,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2802,7 +2823,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2819,11 +2840,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2835,28 +2856,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2868,7 +2889,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2881,15 +2902,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2901,14 +2922,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2918,11 +2939,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2934,28 +2955,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2967,31 +2988,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3000,14 +3021,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3017,11 +3038,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>30</v>
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3050,7 +3071,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3073,7 +3094,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3083,14 +3104,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3099,31 +3120,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3132,7 +3153,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3145,15 +3166,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>30</v>
@@ -3165,14 +3186,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3182,11 +3203,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -3198,7 +3219,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3215,14 +3236,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3231,14 +3252,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3248,14 +3269,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3264,14 +3285,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3281,14 +3302,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3314,14 +3335,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3337,7 +3358,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3351,7 +3372,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3363,14 +3384,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3380,14 +3401,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3396,14 +3417,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3413,14 +3434,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3429,31 +3450,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3462,7 +3483,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3475,18 +3496,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3495,14 +3516,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3512,14 +3533,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3528,14 +3549,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3545,14 +3566,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3561,14 +3582,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3578,11 +3599,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>30</v>
@@ -3594,7 +3615,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3611,14 +3632,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3627,14 +3648,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3644,14 +3665,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3660,14 +3681,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3677,14 +3698,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3700,7 +3721,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3710,14 +3731,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3726,14 +3747,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3743,14 +3764,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3759,31 +3780,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3792,14 +3813,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3809,11 +3830,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -3825,28 +3846,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3858,14 +3879,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3875,14 +3896,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3898,7 +3919,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3908,14 +3929,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>54</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3924,28 +3945,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -3957,28 +3978,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -3990,14 +4011,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4007,11 +4028,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -4023,14 +4044,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4040,14 +4061,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4056,14 +4077,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4073,14 +4094,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4096,7 +4117,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4106,14 +4127,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4129,7 +4150,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4143,7 +4164,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4155,7 +4176,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4172,7 +4193,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4195,7 +4216,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4228,7 +4249,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4238,11 +4259,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>30</v>
@@ -4254,14 +4275,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4271,14 +4292,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>250</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4287,14 +4308,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4304,11 +4325,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>28</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>30</v>
@@ -4327,7 +4348,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4337,14 +4358,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>57</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4353,14 +4374,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4370,11 +4391,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>30</v>
@@ -4393,7 +4414,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4403,14 +4424,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4426,7 +4447,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4440,7 +4461,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>30</v>
@@ -4452,14 +4473,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4469,14 +4490,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4492,7 +4513,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4502,11 +4523,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>30</v>
@@ -4525,7 +4546,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4542,7 +4563,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4568,14 +4589,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>118</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4584,14 +4605,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4601,14 +4622,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4617,14 +4638,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>30</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4634,14 +4655,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4650,20 +4671,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>117</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4671,10 +4692,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4683,31 +4704,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4716,31 +4737,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4766,14 +4787,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4782,14 +4803,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4799,14 +4820,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4815,14 +4836,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4832,11 +4853,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>30</v>
@@ -4855,7 +4876,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4865,14 +4886,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4881,14 +4902,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4898,14 +4919,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4914,7 +4935,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4931,14 +4952,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>302</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4947,7 +4968,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4964,14 +4985,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4997,14 +5018,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5013,14 +5034,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>53</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5030,14 +5051,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>273</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5053,7 +5074,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>53</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5063,14 +5084,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5079,14 +5100,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>287</v>
+        <v>53</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5096,11 +5117,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>30</v>
@@ -5112,14 +5133,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>315</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5129,14 +5150,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5145,14 +5166,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>53</v>
+        <v>318</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5162,14 +5183,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>132</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5178,14 +5199,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5195,11 +5216,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>231</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>30</v>
@@ -5211,14 +5232,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>319</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5228,14 +5249,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5244,14 +5265,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>53</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5261,14 +5282,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>314</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>30</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5277,14 +5298,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>53</v>
+        <v>315</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5294,49 +5315,148 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>325</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>326</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>89</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>28</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>327</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>328</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>89</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>288</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>329</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>53</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>89</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>82</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>83</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6350.25</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>323</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>324</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>325</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c t="s" r="Q121" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6731.2399999999998</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>330</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>331</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>332</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5905,10 +6025,25 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -824,7 +824,7 @@
     <t>VOLTAREN 100MG 10 SUPP.</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>108.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -899,6 +899,15 @@
     <t>28:0</t>
   </si>
   <si>
+    <t>بيبي جوي رقم 5</t>
+  </si>
+  <si>
+    <t>370.00</t>
+  </si>
+  <si>
+    <t>370.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -1001,7 +1010,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:47 PM</t>
+    <t>Sunday, 14 September, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4579,7 +4588,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4593,10 +4602,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4909,7 +4918,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>53</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4919,14 +4928,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4942,7 +4951,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>53</v>
+        <v>300</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4952,14 +4961,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5025,7 +5034,7 @@
         <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5051,14 +5060,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>154</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>309</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5067,7 +5076,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5084,14 +5093,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>94</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5100,7 +5109,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5117,14 +5126,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5133,14 +5142,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>315</v>
+        <v>53</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5150,14 +5159,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5183,11 +5192,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>151</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5206,7 +5215,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5216,14 +5225,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>288</v>
+        <v>151</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5232,14 +5241,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5249,11 +5258,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>30</v>
@@ -5265,14 +5274,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5282,14 +5291,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>255</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5298,14 +5307,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>315</v>
+        <v>53</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5315,14 +5324,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>30</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5331,14 +5340,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5348,14 +5357,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5364,14 +5373,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5381,14 +5390,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5397,14 +5406,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>53</v>
+        <v>331</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5414,49 +5423,82 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>332</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>53</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>89</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>82</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
         <v>83</v>
       </c>
-      <c t="s" r="Q121" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6731.2399999999998</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>330</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>331</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>332</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c t="s" r="Q122" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7155.2399999999998</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>333</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>334</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>335</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6040,10 +6082,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -263,6 +263,21 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>COVAPRENDO 5/10MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>-2:-2</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>1332.0000</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -998,9 +1013,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -1010,7 +1022,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:48 PM</t>
+    <t>Sunday, 14 September, 2025 9:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2328,7 +2340,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2337,31 +2349,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2370,31 +2382,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2403,14 +2415,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2420,14 +2432,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2436,14 +2448,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2453,14 +2465,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2469,31 +2481,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2502,31 +2514,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2535,14 +2547,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2552,14 +2564,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2568,14 +2580,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2585,14 +2597,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2601,14 +2613,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2618,11 +2630,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>53</v>
@@ -2634,14 +2646,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2651,14 +2663,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2667,31 +2679,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2700,31 +2712,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2733,14 +2745,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2750,14 +2762,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2766,14 +2778,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2783,14 +2795,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2799,14 +2811,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2816,14 +2828,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2832,14 +2844,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2849,11 +2861,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2865,14 +2877,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2882,11 +2894,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2898,28 +2910,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2931,7 +2943,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2944,15 +2956,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2964,14 +2976,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2981,11 +2993,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2997,28 +3009,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3030,31 +3042,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3063,14 +3075,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3080,11 +3092,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -3096,14 +3108,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3113,11 +3125,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>30</v>
@@ -3129,14 +3141,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3146,14 +3158,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3162,31 +3174,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3195,7 +3207,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3208,15 +3220,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -3228,14 +3240,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3245,11 +3257,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
@@ -3261,7 +3273,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3278,14 +3290,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3311,14 +3323,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3344,14 +3356,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3360,7 +3372,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3377,14 +3389,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3393,14 +3405,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3410,11 +3422,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -3426,14 +3438,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3443,14 +3455,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3476,14 +3488,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3492,31 +3504,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3525,7 +3537,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3538,18 +3550,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3575,14 +3587,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3591,14 +3603,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3608,14 +3620,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3624,14 +3636,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3641,11 +3653,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>30</v>
@@ -3657,7 +3669,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3674,14 +3686,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3690,14 +3702,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3707,14 +3719,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3723,14 +3735,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3740,14 +3752,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3756,14 +3768,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3773,14 +3785,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3789,14 +3801,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3806,14 +3818,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3822,31 +3834,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3855,28 +3867,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3888,28 +3900,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>30</v>
@@ -3921,14 +3933,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3938,14 +3950,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3954,14 +3966,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3971,14 +3983,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3987,28 +3999,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -4020,28 +4032,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -4053,14 +4065,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4070,11 +4082,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -4086,14 +4098,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4103,14 +4115,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4119,14 +4131,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4136,14 +4148,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4152,14 +4164,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4169,14 +4181,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4185,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4202,14 +4214,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4218,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4235,14 +4247,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4251,14 +4263,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4268,14 +4280,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4284,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4301,14 +4313,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4317,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4334,14 +4346,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4350,14 +4362,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4367,14 +4379,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>255</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4383,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,14 +4412,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4416,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4433,14 +4445,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4449,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4466,14 +4478,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>91</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4482,14 +4494,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4499,14 +4511,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>118</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4515,14 +4527,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4532,14 +4544,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>123</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4548,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4565,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4581,14 +4593,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4598,14 +4610,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4614,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4631,14 +4643,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4647,14 +4659,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>132</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4664,14 +4676,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>117</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4680,14 +4692,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>117</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4697,14 +4709,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4713,14 +4725,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4730,14 +4742,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4746,7 +4758,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4763,11 +4775,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4779,31 +4791,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>30</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4812,31 +4824,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4845,31 +4857,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>278</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4878,31 +4890,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>55</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4911,31 +4923,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>53</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4944,31 +4956,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>53</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4977,31 +4989,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>53</v>
+        <v>305</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5010,7 +5022,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5023,15 +5035,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>30</v>
@@ -5043,7 +5055,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5056,18 +5068,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5076,7 +5088,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5089,18 +5101,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>154</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>312</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5109,7 +5121,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5122,18 +5134,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>94</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5142,7 +5154,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5155,18 +5167,18 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5175,31 +5187,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>318</v>
+        <v>53</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5208,28 +5220,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>151</v>
+        <v>324</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5241,31 +5253,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>288</v>
+        <v>156</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5274,20 +5286,20 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
@@ -5295,7 +5307,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>30</v>
@@ -5307,31 +5319,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>255</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5340,31 +5352,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>318</v>
+        <v>53</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>30</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5373,31 +5385,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5406,31 +5418,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>331</v>
+        <v>88</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>324</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5439,66 +5451,99 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>53</v>
+        <v>335</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>336</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>53</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>94</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>82</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>83</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7155.2399999999998</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>333</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>334</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>335</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c t="s" r="Q123" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>8487.2399999999998</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>337</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>338</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>339</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6087,10 +6132,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>COVAPRENDO 5/10MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>-2:-2</t>
   </si>
   <si>
     <t>111.00</t>
@@ -2323,7 +2320,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2333,14 +2330,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2349,14 +2346,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2366,11 +2363,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2382,7 +2379,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2395,7 +2392,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2415,7 +2412,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2432,11 +2429,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>57</v>
@@ -2448,14 +2445,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2465,11 +2462,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2481,7 +2478,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2498,11 +2495,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -2514,7 +2511,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2527,15 +2524,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2547,14 +2544,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2568,10 +2565,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2580,7 +2577,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2597,11 +2594,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>30</v>
@@ -2613,14 +2610,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2630,11 +2627,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>53</v>
@@ -2646,7 +2643,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2663,11 +2660,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>53</v>
@@ -2679,7 +2676,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2712,7 +2709,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2725,15 +2722,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2745,14 +2742,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2762,11 +2759,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2778,7 +2775,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2795,11 +2792,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2811,7 +2808,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2828,11 +2825,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>42</v>
@@ -2844,14 +2841,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2865,7 +2862,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2877,7 +2874,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2894,11 +2891,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2910,14 +2907,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2927,11 +2924,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2943,7 +2940,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2956,15 +2953,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2976,7 +2973,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2993,11 +2990,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -3009,7 +3006,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3026,11 +3023,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3042,7 +3039,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3055,15 +3052,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3075,7 +3072,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3092,11 +3089,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -3108,7 +3105,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3125,11 +3122,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>30</v>
@@ -3141,7 +3138,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3158,11 +3155,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>30</v>
@@ -3174,7 +3171,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3191,11 +3188,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3207,7 +3204,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3220,15 +3217,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -3240,7 +3237,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3257,11 +3254,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
@@ -3273,7 +3270,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3290,11 +3287,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -3306,7 +3303,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3323,11 +3320,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3339,14 +3336,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3356,11 +3353,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>30</v>
@@ -3372,7 +3369,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3389,11 +3386,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>57</v>
@@ -3405,7 +3402,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3422,11 +3419,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -3438,7 +3435,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3455,11 +3452,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>30</v>
@@ -3471,7 +3468,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3504,7 +3501,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3521,11 +3518,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3537,7 +3534,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3550,15 +3547,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>30</v>
@@ -3570,7 +3567,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3587,11 +3584,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3603,7 +3600,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3620,14 +3617,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>196</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>197</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3636,7 +3633,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3653,11 +3650,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>30</v>
@@ -3669,7 +3666,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3686,11 +3683,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>30</v>
@@ -3702,7 +3699,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3719,11 +3716,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3735,14 +3732,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3752,11 +3749,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3768,7 +3765,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3789,7 +3786,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3801,7 +3798,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3818,11 +3815,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>42</v>
@@ -3834,7 +3831,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3851,11 +3848,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3867,7 +3864,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3880,15 +3877,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3900,7 +3897,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3913,15 +3910,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>30</v>
@@ -3933,7 +3930,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3950,11 +3947,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>30</v>
@@ -3966,7 +3963,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3987,7 +3984,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>42</v>
@@ -3999,7 +3996,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4016,11 +4013,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -4032,7 +4029,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4045,15 +4042,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -4065,7 +4062,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4082,11 +4079,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -4098,7 +4095,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4115,11 +4112,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>30</v>
@@ -4131,7 +4128,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4148,11 +4145,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4164,7 +4161,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4181,11 +4178,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>30</v>
@@ -4197,7 +4194,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4214,7 +4211,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4230,7 +4227,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4247,11 +4244,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>30</v>
@@ -4263,7 +4260,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4280,11 +4277,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4296,7 +4293,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4313,11 +4310,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>30</v>
@@ -4329,7 +4326,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4346,11 +4343,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4362,7 +4359,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4395,7 +4392,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4412,14 +4409,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>259</v>
-      </c>
-      <c t="s" r="Q90" s="12">
-        <v>260</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4428,7 +4425,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4445,11 +4442,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>30</v>
@@ -4461,7 +4458,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4478,11 +4475,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>57</v>
@@ -4494,7 +4491,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4511,11 +4508,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>30</v>
@@ -4527,7 +4524,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4544,11 +4541,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4560,7 +4557,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4577,11 +4574,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>30</v>
@@ -4593,7 +4590,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4610,11 +4607,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4626,14 +4623,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4643,11 +4640,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4659,14 +4656,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4676,11 +4673,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>42</v>
@@ -4692,14 +4689,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4709,14 +4706,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4725,14 +4722,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4742,14 +4739,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4758,7 +4755,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4791,7 +4788,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4808,11 +4805,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4824,24 +4821,24 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4857,28 +4854,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4890,7 +4887,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4903,15 +4900,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>30</v>
@@ -4923,20 +4920,20 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4956,7 +4953,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4969,15 +4966,15 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>30</v>
@@ -4989,28 +4986,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>57</v>
@@ -5022,7 +5019,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5035,15 +5032,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>30</v>
@@ -5055,7 +5052,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5068,15 +5065,15 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>30</v>
@@ -5088,7 +5085,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5101,15 +5098,15 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5121,7 +5118,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5134,18 +5131,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5154,7 +5151,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5167,18 +5164,18 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5187,7 +5184,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5200,15 +5197,15 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>30</v>
@@ -5220,28 +5217,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5253,28 +5250,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5286,28 +5283,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>30</v>
@@ -5319,7 +5316,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5332,15 +5329,15 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>30</v>
@@ -5352,7 +5349,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5365,7 +5362,7 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
@@ -5373,10 +5370,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5385,28 +5382,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>30</v>
@@ -5418,20 +5415,20 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5439,7 +5436,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5451,28 +5448,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>30</v>
@@ -5484,7 +5481,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5497,7 +5494,7 @@
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
@@ -5519,7 +5516,7 @@
     </row>
     <row r="125" ht="16.5" customHeight="1">
       <c t="s" r="A125" s="14">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -5527,13 +5524,13 @@
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
       <c t="s" r="G125" s="15">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="16"/>
       <c t="s" r="K125" s="17">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L125" s="17"/>
       <c r="M125" s="17"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BRONCHONEER 30 TAB</t>
   </si>
   <si>
@@ -194,15 +206,6 @@
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -428,6 +431,15 @@
     <t>52.4700</t>
   </si>
   <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
@@ -662,6 +674,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>81.1800</t>
+  </si>
+  <si>
     <t xml:space="preserve">POSHURIC2.4/2.5GM  SACHET</t>
   </si>
   <si>
@@ -722,9 +743,6 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>SOLUPRED ORO 20MG 20 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -812,6 +830,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>VERANO CAPS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -821,9 +848,6 @@
     <t>VITACID C 1GM 12 EFF. TAB.</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
   </si>
   <si>
@@ -1019,7 +1043,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:50 PM</t>
+    <t>Sunday, 14 September, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1858,7 +1882,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1868,11 +1892,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1884,14 +1908,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1901,11 +1925,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1917,14 +1941,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1934,14 +1958,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1950,7 +1974,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1967,14 +1991,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1983,14 +2007,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2007,7 +2031,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2040,7 +2064,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2073,7 +2097,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2122,7 +2146,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2132,14 +2156,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2148,14 +2172,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2165,11 +2189,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>30</v>
@@ -2181,7 +2205,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2198,14 +2222,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2214,14 +2238,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2231,14 +2255,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2247,14 +2271,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2264,11 +2288,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>30</v>
@@ -2280,14 +2304,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2297,11 +2321,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>30</v>
@@ -2313,14 +2337,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2330,14 +2354,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2346,14 +2370,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2363,14 +2387,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2379,31 +2403,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2412,31 +2436,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2445,14 +2469,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2462,14 +2486,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2478,14 +2502,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2495,14 +2519,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2511,31 +2535,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2544,31 +2568,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2577,14 +2601,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2594,14 +2618,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2610,14 +2634,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2627,14 +2651,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2643,14 +2667,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2660,14 +2684,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2676,14 +2700,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2693,14 +2717,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2716,24 +2740,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2742,31 +2766,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2775,14 +2799,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2792,14 +2816,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2808,14 +2832,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2825,14 +2849,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2841,14 +2865,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2858,14 +2882,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2874,14 +2898,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2891,11 +2915,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2907,14 +2931,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2924,11 +2948,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2940,28 +2964,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2973,7 +2997,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2990,11 +3014,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -3006,28 +3030,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3039,28 +3063,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3072,14 +3096,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3089,14 +3113,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3105,31 +3129,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3138,14 +3162,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3155,11 +3179,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>30</v>
@@ -3171,14 +3195,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3188,14 +3212,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3204,28 +3228,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -3237,14 +3261,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3254,14 +3278,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3270,28 +3294,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -3303,14 +3327,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3320,14 +3344,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3336,14 +3360,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3353,11 +3377,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>30</v>
@@ -3369,14 +3393,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3386,14 +3410,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3402,14 +3426,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3419,7 +3443,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3442,7 +3466,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3452,14 +3476,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3468,14 +3492,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3485,14 +3509,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3501,14 +3525,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3518,14 +3542,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3541,24 +3565,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3567,14 +3591,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3584,14 +3608,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3600,31 +3624,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>196</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3633,14 +3657,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3650,14 +3674,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3666,14 +3690,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3683,14 +3707,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3699,14 +3723,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3716,14 +3740,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3732,14 +3756,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3749,14 +3773,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3765,14 +3789,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3782,11 +3806,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3798,14 +3822,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3815,14 +3839,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3831,14 +3855,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3848,14 +3872,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3864,31 +3888,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3897,31 +3921,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3930,14 +3954,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3947,14 +3971,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3963,31 +3987,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3996,28 +4020,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -4029,28 +4053,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -4062,14 +4086,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4079,14 +4103,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4102,7 +4126,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4135,24 +4159,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4161,7 +4185,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4178,11 +4202,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>30</v>
@@ -4194,14 +4218,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4211,14 +4235,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4227,14 +4251,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4244,14 +4268,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4260,14 +4284,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4277,14 +4301,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4293,14 +4317,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4310,14 +4334,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4326,14 +4350,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4343,14 +4367,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4359,14 +4383,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4376,14 +4400,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4399,7 +4423,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4409,14 +4433,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>259</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4425,14 +4449,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4442,14 +4466,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4475,14 +4499,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4491,14 +4515,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4508,14 +4532,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4524,14 +4548,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4541,14 +4565,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4557,14 +4581,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4574,14 +4598,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>91</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4590,14 +4614,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4607,14 +4631,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4623,31 +4647,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4663,7 +4687,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4673,14 +4697,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4689,14 +4713,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4706,14 +4730,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>121</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4722,14 +4746,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4739,14 +4763,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4755,14 +4779,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4772,14 +4796,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>43</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4788,14 +4812,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4805,14 +4829,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4821,31 +4845,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4854,31 +4878,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>122</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4887,31 +4911,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>282</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4920,31 +4944,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>30</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>55</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4953,31 +4977,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>53</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4986,31 +5010,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5019,28 +5043,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>30</v>
@@ -5052,31 +5076,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>53</v>
+        <v>307</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>311</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5085,31 +5109,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5118,31 +5142,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>53</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>158</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>316</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5151,31 +5175,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5184,28 +5208,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>30</v>
@@ -5217,31 +5241,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>322</v>
+        <v>57</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5250,31 +5274,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>325</v>
+        <v>57</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>155</v>
+        <v>289</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>326</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5283,31 +5307,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>299</v>
+        <v>57</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5316,28 +5340,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>30</v>
@@ -5349,31 +5373,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>331</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>259</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5382,31 +5406,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>237</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5415,31 +5439,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>87</v>
+        <v>307</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>210</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5448,28 +5472,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>334</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>30</v>
@@ -5481,66 +5505,198 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>339</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>330</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>94</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>243</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>340</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>88</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>94</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>28</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>341</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>342</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>94</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>300</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>343</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>57</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>94</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
         <v>83</v>
       </c>
-      <c t="s" r="Q123" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>8487.2399999999998</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>336</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>337</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>338</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>8671.6499999999996</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>344</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>345</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>346</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6134,10 +6290,30 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -1043,7 +1043,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 9:57 PM</t>
+    <t>Sunday, 14 September, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -446,7 +446,7 @@
     <t>195.00</t>
   </si>
   <si>
-    <t>64.3500</t>
+    <t>128.7000</t>
   </si>
   <si>
     <t>FLUMOX 500MG 16 CAPS</t>
@@ -545,6 +545,12 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -608,42 +614,45 @@
     <t>39.00</t>
   </si>
   <si>
-    <t>77.6100</t>
+    <t>155.6100</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>NO GRAVIDA 12 VAGINAL SUPP.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>NO GRAVIDA 12 VAGINAL SUPP.</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
     <t>128.00</t>
   </si>
   <si>
@@ -815,6 +824,9 @@
     <t>31.00</t>
   </si>
   <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -983,7 +995,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>25:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1043,7 +1055,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 10:10 PM</t>
+    <t>Sunday, 14 September, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3037,7 +3049,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3054,7 +3066,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3433,21 +3445,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3476,14 +3488,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3509,14 +3521,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3532,7 +3544,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3546,7 +3558,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>30</v>
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3575,14 +3587,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3591,14 +3603,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3608,14 +3620,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3624,31 +3636,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3657,7 +3669,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3670,18 +3682,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3690,14 +3702,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3707,14 +3719,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3723,14 +3735,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3740,14 +3752,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3756,14 +3768,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3773,11 +3785,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3789,7 +3801,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3806,14 +3818,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3822,14 +3834,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3839,14 +3851,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3855,14 +3867,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3872,14 +3884,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3888,14 +3900,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3905,14 +3917,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3928,7 +3940,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3945,7 +3957,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3961,7 +3973,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3978,7 +3990,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3994,13 +4006,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -4011,7 +4023,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4027,7 +4039,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4060,13 +4072,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4093,7 +4105,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4103,14 +4115,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4119,14 +4131,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4136,14 +4148,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>58</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4159,21 +4171,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>30</v>
@@ -4185,28 +4197,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>30</v>
@@ -4225,7 +4237,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4239,7 +4251,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>30</v>
@@ -4251,14 +4263,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4268,14 +4280,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4291,7 +4303,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4301,14 +4313,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4317,14 +4329,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4334,14 +4346,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4350,14 +4362,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4367,14 +4379,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4390,7 +4402,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4407,7 +4419,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4423,7 +4435,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4433,14 +4445,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>126</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4449,14 +4461,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4466,14 +4478,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4489,7 +4501,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4499,14 +4511,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4515,14 +4527,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4532,14 +4544,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>265</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4555,7 +4567,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4565,14 +4577,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4581,14 +4593,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4598,14 +4610,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4614,14 +4626,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4631,14 +4643,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>91</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4647,31 +4659,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4680,31 +4692,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4713,14 +4725,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4730,14 +4742,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4746,14 +4758,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4763,14 +4775,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>141</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4779,14 +4791,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4796,14 +4808,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4812,14 +4824,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4829,14 +4841,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4845,14 +4857,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4869,7 +4881,7 @@
         <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>122</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4885,7 +4897,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4895,11 +4907,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>122</v>
@@ -4911,14 +4923,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4928,14 +4940,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>47</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4944,7 +4956,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4961,11 +4973,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4977,20 +4989,20 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>30</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4998,10 +5010,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5010,14 +5022,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5027,14 +5039,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5043,14 +5055,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>306</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5060,14 +5072,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>290</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5076,14 +5088,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5093,14 +5105,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5109,14 +5121,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>57</v>
+        <v>311</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5126,14 +5138,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5142,14 +5154,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>57</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5159,14 +5171,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5175,14 +5187,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>57</v>
+        <v>316</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5192,14 +5204,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5208,7 +5220,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5225,11 +5237,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>30</v>
@@ -5241,7 +5253,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5258,14 +5270,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5274,7 +5286,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5291,14 +5303,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>324</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5307,7 +5319,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5324,14 +5336,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>326</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>99</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5340,7 +5352,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5357,14 +5369,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5373,14 +5385,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>330</v>
+        <v>57</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5390,14 +5402,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5406,14 +5418,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5423,11 +5435,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>159</v>
+        <v>335</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5439,14 +5451,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5456,14 +5468,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>300</v>
+        <v>159</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5472,14 +5484,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>311</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5489,11 +5501,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>30</v>
@@ -5505,14 +5517,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5522,14 +5534,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>136</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>265</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5538,14 +5550,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>330</v>
+        <v>57</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5555,14 +5567,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>30</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5571,14 +5583,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>88</v>
+        <v>334</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5588,14 +5600,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5604,14 +5616,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>342</v>
+        <v>88</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5621,14 +5633,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>336</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5637,14 +5649,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>57</v>
+        <v>346</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5654,49 +5666,82 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>340</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>347</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>57</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>94</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>83</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>84</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>8671.6499999999996</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>344</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>345</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
-        <v>346</v>
-      </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c t="s" r="Q128" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>8987</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>348</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>349</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>350</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6310,10 +6355,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -1055,7 +1055,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 10:16 PM</t>
+    <t>Sunday, 14 September, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -149,9 +164,6 @@
     <t>BRUFEN 200MG 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -284,9 +296,6 @@
     <t>4:3</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>11.8800</t>
   </si>
   <si>
@@ -308,9 +317,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>DICETEL 100MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -332,99 +338,99 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>207.3600</t>
+  </si>
+  <si>
+    <t>DOLO-D ORAL SUSP. 115 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
     <t>7:2</t>
   </si>
   <si>
-    <t>159.3600</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>DOLO-D ORAL SUSP. 115 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 25 MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
     <t>159.00</t>
   </si>
   <si>
@@ -902,7 +908,10 @@
     <t>56.00</t>
   </si>
   <si>
-    <t>280.0000</t>
+    <t>392.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>ZYMAGALLIN 30 TAB</t>
@@ -959,10 +968,10 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>47:0</t>
-  </si>
-  <si>
-    <t>36.6000</t>
+    <t>46:0</t>
+  </si>
+  <si>
+    <t>56.6000</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -995,13 +1004,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>26:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>14.4900</t>
+    <t>23.4900</t>
+  </si>
+  <si>
+    <t>7:1</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -1040,12 +1052,18 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>محلول جلوكوز 5%</t>
   </si>
   <si>
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -1055,7 +1073,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 10:25 PM</t>
+    <t>Sunday, 14 September, 2025 10:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1779,7 +1797,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1788,14 +1806,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1805,14 +1823,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1828,7 +1846,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1838,14 +1856,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1854,14 +1872,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1871,14 +1889,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1911,7 +1929,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1920,14 +1938,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1937,14 +1955,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1953,14 +1971,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1970,14 +1988,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1986,14 +2004,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2003,14 +2021,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2019,14 +2037,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2036,14 +2054,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2052,14 +2070,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2076,7 +2094,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2109,7 +2127,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2142,7 +2160,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2158,7 +2176,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2168,14 +2186,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2184,14 +2202,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2201,14 +2219,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2217,14 +2235,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2250,7 +2268,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2267,14 +2285,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2283,14 +2301,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2307,7 +2325,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2340,7 +2358,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2356,7 +2374,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2382,14 +2400,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2399,14 +2417,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2422,7 +2440,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2432,14 +2450,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2455,24 +2473,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2481,31 +2499,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2521,7 +2539,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2531,14 +2549,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2547,14 +2565,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2564,14 +2582,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2580,31 +2598,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2613,31 +2631,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2646,14 +2664,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2663,14 +2681,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2679,14 +2697,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2712,14 +2730,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2729,14 +2747,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2745,14 +2763,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2762,14 +2780,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2785,24 +2803,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2811,31 +2829,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2861,14 +2879,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2894,14 +2912,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2910,14 +2928,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2927,11 +2945,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2943,14 +2961,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2960,14 +2978,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2976,14 +2994,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2993,14 +3011,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3009,14 +3027,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3026,14 +3044,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3042,31 +3060,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3075,28 +3093,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3108,14 +3126,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3125,14 +3143,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3141,31 +3159,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3174,31 +3192,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3207,14 +3225,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3224,14 +3242,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3240,14 +3258,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3257,14 +3275,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3280,7 +3298,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3290,14 +3308,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3306,31 +3324,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3339,31 +3357,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3372,14 +3390,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3389,14 +3407,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3405,7 +3423,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3422,14 +3440,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3438,31 +3456,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3478,24 +3496,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3504,14 +3522,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3521,14 +3539,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3544,7 +3562,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3554,14 +3572,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3577,7 +3595,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3587,14 +3605,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3603,14 +3621,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3620,14 +3638,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3636,14 +3654,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3653,11 +3671,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3669,31 +3687,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3702,31 +3720,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3735,14 +3753,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3752,14 +3770,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3768,14 +3786,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3785,14 +3803,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3801,14 +3819,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3818,14 +3836,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3834,14 +3852,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3851,14 +3869,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3867,14 +3885,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3884,14 +3902,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3900,14 +3918,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3917,14 +3935,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3940,7 +3958,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3950,14 +3968,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3966,14 +3984,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3983,11 +4001,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3999,14 +4017,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4016,14 +4034,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4032,31 +4050,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4065,31 +4083,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4098,31 +4116,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4131,14 +4149,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4148,14 +4166,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4171,7 +4189,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4181,14 +4199,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4197,31 +4215,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4230,31 +4248,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4263,14 +4281,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4280,14 +4298,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4303,7 +4321,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4317,10 +4335,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4329,14 +4347,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4346,14 +4364,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4369,7 +4387,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4379,14 +4397,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4402,7 +4420,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4416,10 +4434,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4428,14 +4446,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4445,14 +4463,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4461,14 +4479,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4478,14 +4496,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>126</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4501,7 +4519,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4511,14 +4529,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4527,14 +4545,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4544,14 +4562,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>28</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4560,14 +4578,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4577,14 +4595,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>268</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4593,14 +4611,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4610,14 +4628,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4626,14 +4644,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4643,14 +4661,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>91</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4666,7 +4684,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4676,14 +4694,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4692,31 +4710,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4725,31 +4743,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>123</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4765,7 +4783,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4775,14 +4793,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4791,14 +4809,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4808,14 +4826,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>143</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4824,14 +4842,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4841,14 +4859,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4864,7 +4882,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4874,14 +4892,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>143</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4890,14 +4908,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>133</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4907,14 +4925,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4923,14 +4941,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>122</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4940,14 +4958,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4956,14 +4974,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4973,14 +4991,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>35</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4989,14 +5007,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5006,14 +5024,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5029,24 +5047,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>303</v>
+        <v>35</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5068,7 +5086,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5076,10 +5094,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5095,24 +5113,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>294</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5121,31 +5139,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>59</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5154,31 +5172,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>57</v>
+        <v>314</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5194,24 +5212,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>316</v>
+        <v>61</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5227,24 +5245,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>57</v>
+        <v>319</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5260,13 +5278,13 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5277,7 +5295,7 @@
         <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5293,13 +5311,13 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
@@ -5310,7 +5328,7 @@
         <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5326,24 +5344,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>328</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5352,31 +5370,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>99</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5385,31 +5403,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>30</v>
+        <v>334</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5418,31 +5436,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>334</v>
+        <v>61</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5451,28 +5469,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>159</v>
+        <v>339</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5484,31 +5502,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>304</v>
+        <v>161</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5517,31 +5535,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5550,31 +5568,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>136</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>268</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5583,31 +5601,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>334</v>
+        <v>61</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>142</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5616,31 +5634,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>88</v>
+        <v>338</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5649,31 +5667,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>304</v>
+        <v>33</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5682,66 +5700,99 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>57</v>
+        <v>352</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>84</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>8987</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>348</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>349</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
-        <v>350</v>
-      </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>353</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>61</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>97</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>87</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>9264.7600000000002</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>354</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>355</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>356</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6360,10 +6411,15 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -1073,7 +1073,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 10:29 PM</t>
+    <t>Sunday, 14 September, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-14_00-00.xlsx
+++ b/DaySale_2025-09-14_00-00.xlsx
@@ -335,6 +335,12 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>DIOSMIN PLUS 500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -506,6 +512,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -791,9 +806,6 @@
     <t>TORSAMOLEX 20MG 20 TABS</t>
   </si>
   <si>
-    <t>62.00</t>
-  </si>
-  <si>
     <t>31.0000</t>
   </si>
   <si>
@@ -830,9 +842,6 @@
     <t>31.00</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -1073,7 +1082,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Sunday, 14 September, 2025 10:30 PM</t>
+    <t>Sunday, 14 September, 2025 10:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2671,7 +2680,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2681,14 +2690,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2697,14 +2706,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2714,14 +2723,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2730,14 +2739,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2747,14 +2756,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2770,7 +2779,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2780,11 +2789,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>61</v>
@@ -2803,7 +2812,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2813,14 +2822,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2829,31 +2838,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2862,31 +2871,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2912,14 +2921,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2945,14 +2954,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2978,14 +2987,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3011,11 +3020,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -3027,14 +3036,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3044,11 +3053,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>26</v>
@@ -3060,14 +3069,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3077,11 +3086,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -3093,31 +3102,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3126,31 +3135,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3159,14 +3168,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3176,11 +3185,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -3192,28 +3201,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -3225,31 +3234,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3258,14 +3267,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3275,11 +3284,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>35</v>
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3308,7 +3317,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3331,7 +3340,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3341,14 +3350,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3357,7 +3366,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3370,15 +3379,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>35</v>
@@ -3390,14 +3399,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3407,14 +3416,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3423,28 +3432,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>35</v>
@@ -3456,14 +3465,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3473,14 +3482,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3489,24 +3498,24 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3529,7 +3538,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3539,14 +3548,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3555,7 +3564,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3568,18 +3577,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3588,14 +3597,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3605,11 +3614,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>35</v>
@@ -3621,14 +3630,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3638,14 +3647,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3654,14 +3663,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3671,14 +3680,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3687,14 +3696,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3704,14 +3713,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3720,31 +3729,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3753,14 +3762,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3770,14 +3779,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3786,31 +3795,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>204</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3819,7 +3828,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3836,14 +3845,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3869,14 +3878,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3902,14 +3911,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3918,14 +3927,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3935,14 +3944,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3951,14 +3960,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3968,11 +3977,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3984,14 +3993,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4008,7 +4017,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4024,7 +4033,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4034,14 +4043,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4050,14 +4059,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4067,11 +4076,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4083,31 +4092,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4116,31 +4125,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4149,28 +4158,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>35</v>
@@ -4182,31 +4191,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>62</v>
+        <v>238</v>
       </c>
